--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O628"/>
+  <dimension ref="A1:O634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28778,6 +28778,296 @@
         </is>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>314.0171428571429</v>
+      </c>
+      <c r="C629" t="n">
+        <v>301.52</v>
+      </c>
+      <c r="D629" t="n">
+        <v>289.43</v>
+      </c>
+      <c r="E629" t="n">
+        <v>304.4077777777778</v>
+      </c>
+      <c r="F629" t="n">
+        <v>312.47</v>
+      </c>
+      <c r="G629" t="n">
+        <v>327.09</v>
+      </c>
+      <c r="H629" t="n">
+        <v>333.2177777777778</v>
+      </c>
+      <c r="I629" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="J629" t="n">
+        <v>335.0463636363637</v>
+      </c>
+      <c r="K629" t="n">
+        <v>333.96</v>
+      </c>
+      <c r="L629" t="n">
+        <v>341.92</v>
+      </c>
+      <c r="M629" t="n">
+        <v>330.7377777777777</v>
+      </c>
+      <c r="N629" t="n">
+        <v>338.5577777777777</v>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="n">
+        <v>297.85</v>
+      </c>
+      <c r="D630" t="n">
+        <v>291.52</v>
+      </c>
+      <c r="E630" t="n">
+        <v>308.1211111111111</v>
+      </c>
+      <c r="F630" t="n">
+        <v>314.04</v>
+      </c>
+      <c r="G630" t="n">
+        <v>319.84</v>
+      </c>
+      <c r="H630" t="n">
+        <v>322.3711111111111</v>
+      </c>
+      <c r="I630" t="n">
+        <v>329.63</v>
+      </c>
+      <c r="J630" t="n">
+        <v>327.8881818181818</v>
+      </c>
+      <c r="K630" t="n">
+        <v>329.78</v>
+      </c>
+      <c r="L630" t="n">
+        <v>330.89</v>
+      </c>
+      <c r="M630" t="n">
+        <v>325.2011111111111</v>
+      </c>
+      <c r="N630" t="n">
+        <v>334.5811111111111</v>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="n">
+        <v>334.23</v>
+      </c>
+      <c r="J631" t="n">
+        <v>330.8427272727272</v>
+      </c>
+      <c r="K631" t="n">
+        <v>331.22</v>
+      </c>
+      <c r="L631" t="n">
+        <v>340.96</v>
+      </c>
+      <c r="M631" t="n">
+        <v>329.1333333333333</v>
+      </c>
+      <c r="N631" t="n">
+        <v>337.0233333333333</v>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:55+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>332.3142857142857</v>
+      </c>
+      <c r="C632" t="n">
+        <v>314.97</v>
+      </c>
+      <c r="D632" t="n">
+        <v>304.38</v>
+      </c>
+      <c r="E632" t="n">
+        <v>316.84</v>
+      </c>
+      <c r="F632" t="n">
+        <v>320.44</v>
+      </c>
+      <c r="G632" t="n">
+        <v>326.09</v>
+      </c>
+      <c r="H632" t="n">
+        <v>330.68</v>
+      </c>
+      <c r="I632" t="n">
+        <v>339.58</v>
+      </c>
+      <c r="J632" t="n">
+        <v>332.319090909091</v>
+      </c>
+      <c r="K632" t="n">
+        <v>337.99</v>
+      </c>
+      <c r="L632" t="n">
+        <v>351.39</v>
+      </c>
+      <c r="M632" t="n">
+        <v>332.64</v>
+      </c>
+      <c r="N632" t="n">
+        <v>343.06</v>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>471.9685714285715</v>
+      </c>
+      <c r="C633" t="n">
+        <v>301.34</v>
+      </c>
+      <c r="D633" t="n">
+        <v>290.78</v>
+      </c>
+      <c r="E633" t="n">
+        <v>305.0822222222222</v>
+      </c>
+      <c r="F633" t="n">
+        <v>310.08</v>
+      </c>
+      <c r="G633" t="n">
+        <v>316.44</v>
+      </c>
+      <c r="H633" t="n">
+        <v>322.4722222222222</v>
+      </c>
+      <c r="I633" t="n">
+        <v>320.28</v>
+      </c>
+      <c r="J633" t="n">
+        <v>322.79</v>
+      </c>
+      <c r="K633" t="n">
+        <v>330.62</v>
+      </c>
+      <c r="L633" t="n">
+        <v>331.91</v>
+      </c>
+      <c r="M633" t="n">
+        <v>326.5522222222222</v>
+      </c>
+      <c r="N633" t="n">
+        <v>330.2922222222222</v>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>487.5985714285715</v>
+      </c>
+      <c r="C634" t="n">
+        <v>308.48</v>
+      </c>
+      <c r="D634" t="n">
+        <v>298.35</v>
+      </c>
+      <c r="E634" t="n">
+        <v>310.9622222222222</v>
+      </c>
+      <c r="F634" t="n">
+        <v>316.35</v>
+      </c>
+      <c r="G634" t="n">
+        <v>323.73</v>
+      </c>
+      <c r="H634" t="n">
+        <v>327.7522222222222</v>
+      </c>
+      <c r="I634" t="n">
+        <v>329.82</v>
+      </c>
+      <c r="J634" t="n">
+        <v>332.61</v>
+      </c>
+      <c r="K634" t="n">
+        <v>337.68</v>
+      </c>
+      <c r="L634" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="M634" t="n">
+        <v>336.1522222222222</v>
+      </c>
+      <c r="N634" t="n">
+        <v>340.5922222222222</v>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28789,7 +29079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B642"/>
+  <dimension ref="A1:B648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35217,6 +35507,66 @@
       </c>
       <c r="B642" t="n">
         <v>0.27</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -35385,28 +35735,28 @@
         <v>0.0383</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.97507629277579</v>
+        <v>-1.85909461757647</v>
       </c>
       <c r="J2" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K2" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02882324498003164</v>
+        <v>0.02596529808059111</v>
       </c>
       <c r="M2" t="n">
-        <v>78.07293702037106</v>
+        <v>78.35065959448488</v>
       </c>
       <c r="N2" t="n">
-        <v>7083.176085469207</v>
+        <v>7091.236844310941</v>
       </c>
       <c r="O2" t="n">
-        <v>84.16160695631476</v>
+        <v>84.20948191451448</v>
       </c>
       <c r="P2" t="n">
-        <v>414.1648390703535</v>
+        <v>413.0029909691311</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -35462,28 +35812,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1779157815185133</v>
+        <v>-0.1667171176199331</v>
       </c>
       <c r="J3" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K3" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005541901908030056</v>
+        <v>0.00496392250688793</v>
       </c>
       <c r="M3" t="n">
-        <v>10.89332164102926</v>
+        <v>10.83448952821678</v>
       </c>
       <c r="N3" t="n">
-        <v>308.9835494710626</v>
+        <v>306.4775405877264</v>
       </c>
       <c r="O3" t="n">
-        <v>17.57792790607194</v>
+        <v>17.5064999525241</v>
       </c>
       <c r="P3" t="n">
-        <v>303.7576815727237</v>
+        <v>303.6500086048778</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -35539,28 +35889,28 @@
         <v>0.0466</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3681372989983326</v>
+        <v>-0.3611894177146269</v>
       </c>
       <c r="J4" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K4" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0361160291567062</v>
+        <v>0.03546329839274387</v>
       </c>
       <c r="M4" t="n">
-        <v>10.58403675746782</v>
+        <v>10.51532405483313</v>
       </c>
       <c r="N4" t="n">
-        <v>203.678756802052</v>
+        <v>201.9633062777029</v>
       </c>
       <c r="O4" t="n">
-        <v>14.27160666505534</v>
+        <v>14.21137946427801</v>
       </c>
       <c r="P4" t="n">
-        <v>300.7596268167184</v>
+        <v>300.6940112724434</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -35616,28 +35966,28 @@
         <v>0.0475</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4866099393950639</v>
+        <v>-0.4694551760995324</v>
       </c>
       <c r="J5" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K5" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05673889990152781</v>
+        <v>0.05382986295726</v>
       </c>
       <c r="M5" t="n">
-        <v>10.54176761248017</v>
+        <v>10.52203942681049</v>
       </c>
       <c r="N5" t="n">
-        <v>213.2685701754129</v>
+        <v>212.1541508768859</v>
       </c>
       <c r="O5" t="n">
-        <v>14.6037176833645</v>
+        <v>14.56551237948346</v>
       </c>
       <c r="P5" t="n">
-        <v>312.4185445463024</v>
+        <v>312.2539438243869</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -35693,28 +36043,28 @@
         <v>0.043</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5288059949861117</v>
+        <v>-0.5113844785117713</v>
       </c>
       <c r="J6" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K6" t="n">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08904648366129697</v>
+        <v>0.08486047761422366</v>
       </c>
       <c r="M6" t="n">
-        <v>9.869583085957071</v>
+        <v>9.866266502928715</v>
       </c>
       <c r="N6" t="n">
-        <v>154.9193160466051</v>
+        <v>154.3569754603515</v>
       </c>
       <c r="O6" t="n">
-        <v>12.4466588306503</v>
+        <v>12.42404827181348</v>
       </c>
       <c r="P6" t="n">
-        <v>318.7903990983348</v>
+        <v>318.6231385603666</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -35770,28 +36120,28 @@
         <v>0.0437</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4629555548664642</v>
+        <v>-0.4440429225758002</v>
       </c>
       <c r="J7" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K7" t="n">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09293805045492576</v>
+        <v>0.08693393264169147</v>
       </c>
       <c r="M7" t="n">
-        <v>8.410529022341027</v>
+        <v>8.423243224767058</v>
       </c>
       <c r="N7" t="n">
-        <v>113.5361258217244</v>
+        <v>113.5771731160066</v>
       </c>
       <c r="O7" t="n">
-        <v>10.65533321026257</v>
+        <v>10.65725917466619</v>
       </c>
       <c r="P7" t="n">
-        <v>324.1320690790968</v>
+        <v>323.9505985272604</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -35847,28 +36197,28 @@
         <v>0.0505</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3050440028603512</v>
+        <v>-0.2976722743374512</v>
       </c>
       <c r="J8" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K8" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04544067825364229</v>
+        <v>0.04408892382340623</v>
       </c>
       <c r="M8" t="n">
-        <v>8.07285357100872</v>
+        <v>8.036611405269817</v>
       </c>
       <c r="N8" t="n">
-        <v>105.3312475555171</v>
+        <v>104.6513961526175</v>
       </c>
       <c r="O8" t="n">
-        <v>10.26310126401943</v>
+        <v>10.22992649790884</v>
       </c>
       <c r="P8" t="n">
-        <v>331.0852033361011</v>
+        <v>331.0146176620345</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -35924,28 +36274,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2694324466846201</v>
+        <v>-0.2617499204255134</v>
       </c>
       <c r="J9" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K9" t="n">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03572568314321423</v>
+        <v>0.03442679682741856</v>
       </c>
       <c r="M9" t="n">
-        <v>7.798955717831706</v>
+        <v>7.775239050504583</v>
       </c>
       <c r="N9" t="n">
-        <v>105.6944517107421</v>
+        <v>105.0200006711841</v>
       </c>
       <c r="O9" t="n">
-        <v>10.28078069558641</v>
+        <v>10.24792665231285</v>
       </c>
       <c r="P9" t="n">
-        <v>334.5705042954008</v>
+        <v>334.4974167999345</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -36001,28 +36351,28 @@
         <v>0.0591</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2552997895582614</v>
+        <v>-0.2555818457300224</v>
       </c>
       <c r="J10" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K10" t="n">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04836133670878795</v>
+        <v>0.04947059342673266</v>
       </c>
       <c r="M10" t="n">
-        <v>6.421471566576602</v>
+        <v>6.385016266399988</v>
       </c>
       <c r="N10" t="n">
-        <v>68.86438546653928</v>
+        <v>68.25660227684121</v>
       </c>
       <c r="O10" t="n">
-        <v>8.298456812356095</v>
+        <v>8.261755399238179</v>
       </c>
       <c r="P10" t="n">
-        <v>336.8417740299215</v>
+        <v>336.8446353911208</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -36078,28 +36428,28 @@
         <v>0.0513</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1139261810304993</v>
+        <v>-0.1144345339067142</v>
       </c>
       <c r="J11" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K11" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007133602970465502</v>
+        <v>0.007369273991462921</v>
       </c>
       <c r="M11" t="n">
-        <v>7.604119099034871</v>
+        <v>7.550920380841239</v>
       </c>
       <c r="N11" t="n">
-        <v>96.60511313778507</v>
+        <v>95.61461342022801</v>
       </c>
       <c r="O11" t="n">
-        <v>9.828790013922623</v>
+        <v>9.778272517179506</v>
       </c>
       <c r="P11" t="n">
-        <v>336.6612593094157</v>
+        <v>336.666062216355</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -36155,28 +36505,28 @@
         <v>0.0424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01201080770969041</v>
+        <v>-0.01389119474405939</v>
       </c>
       <c r="J12" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K12" t="n">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="L12" t="n">
-        <v>7.760572691206669e-05</v>
+        <v>0.0001057617181899895</v>
       </c>
       <c r="M12" t="n">
-        <v>7.693842228803438</v>
+        <v>7.666961613194214</v>
       </c>
       <c r="N12" t="n">
-        <v>99.46324534848212</v>
+        <v>98.87509702325144</v>
       </c>
       <c r="O12" t="n">
-        <v>9.973126157252906</v>
+        <v>9.943595779357256</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9451351792149</v>
+        <v>340.9634331940411</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -36232,28 +36582,28 @@
         <v>0.0462</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07608103479801749</v>
+        <v>-0.08679940981769332</v>
       </c>
       <c r="J13" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K13" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003545556745636946</v>
+        <v>0.004701476197752186</v>
       </c>
       <c r="M13" t="n">
-        <v>7.381268615806935</v>
+        <v>7.356504969981798</v>
       </c>
       <c r="N13" t="n">
-        <v>88.1210481384864</v>
+        <v>87.51771344785823</v>
       </c>
       <c r="O13" t="n">
-        <v>9.387281189912573</v>
+        <v>9.355090242635729</v>
       </c>
       <c r="P13" t="n">
-        <v>336.7986846834726</v>
+        <v>336.9010912438548</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -36309,28 +36659,28 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4307748429606394</v>
+        <v>-0.4289778850821942</v>
       </c>
       <c r="J14" t="n">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K14" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1298203955082489</v>
+        <v>0.1314646278738744</v>
       </c>
       <c r="M14" t="n">
-        <v>6.275347588805291</v>
+        <v>6.241599318828375</v>
       </c>
       <c r="N14" t="n">
-        <v>66.80172476860275</v>
+        <v>66.18823124839467</v>
       </c>
       <c r="O14" t="n">
-        <v>8.173232210613055</v>
+        <v>8.135614988947957</v>
       </c>
       <c r="P14" t="n">
-        <v>347.5326408066596</v>
+        <v>347.5153436725981</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -36367,7 +36717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O628"/>
+  <dimension ref="A1:O634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77307,6 +77657,436 @@
         </is>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-40.91029886453111,176.21356077324717</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-40.91032229288162,176.21264724488373</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-40.91034929491732,176.2117347822998</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-40.91062554668682,176.21083228488885</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-40.91098904862206,176.20999137263235</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-40.911414023137944,176.20926255886835</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-40.91177120467725,176.2084869537179</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>-40.91213485447614,176.20771072171584</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>-40.91255660440855,176.20699465319217</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>-40.91296078081704,176.20626200032808</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>-40.913469391189885,176.20564602967272</t>
+        </is>
+      </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>-40.913943991326036,176.20497304054473</t>
+        </is>
+      </c>
+      <c r="N629" t="inlineStr">
+        <is>
+          <t>-40.914517276559316,176.20448700231918</t>
+        </is>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-40.910290073173265,176.2126376545012</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-40.910367643508586,176.21174024369148</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-40.91065710365061,176.21084679184415</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-40.91100164045348,176.20999982476727</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-40.91135652030639,176.2092219036042</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-40.91168715473393,176.2084214966523</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-40.91210517423619,176.20768262443312</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>-40.912506118522806,176.20694189533887</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>-40.91293228588011,176.2062296200824</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>-40.913402989731445,176.20554874994946</t>
+        </is>
+      </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>-40.91391390964754,176.2049206710291</t>
+        </is>
+      </c>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>-40.91449567054463,176.20444938807933</t>
+        </is>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>-40.91213880209369,176.20771445879475</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>-40.91252695661717,176.2069636711765</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>-40.91294210231886,176.20624077499642</t>
+        </is>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>-40.91346361191874,176.20563756288945</t>
+        </is>
+      </c>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>-40.913935274101355,176.20495786462567</t>
+        </is>
+      </c>
+      <c r="N631" t="inlineStr">
+        <is>
+          <t>-40.914508939621435,176.20447248841154</t>
+        </is>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:55+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-40.910459498670704,176.213608588646</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-40.91044037327303,176.2126823922863</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-40.91048054440065,176.21177384830884</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-40.9107311992407,176.21088085416332</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-40.91105297020421,176.21003427936444</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-40.91140609171395,176.20925695124137</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>-40.91175153964636,176.20847163881453</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>-40.91217791274123,176.2077514835828</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>-40.91253736925086,176.20697455240025</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>-40.91298825319866,176.20629321862978</t>
+        </is>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>-40.91352640125503,176.2057295510405</t>
+        </is>
+      </c>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>-40.913954326426165,176.20499103305218</t>
+        </is>
+      </c>
+      <c r="N632" t="inlineStr">
+        <is>
+          <t>-40.91454173800503,176.20452958767947</t>
+        </is>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-40.91168554946758,176.21397355161173</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-40.91032071262346,176.2126467745105</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-40.91036114687823,176.21173830999263</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-40.910631278307896,176.2108349197537</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-40.91096988016385,176.20997850601293</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-40.91132955345524,176.2092028377123</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>-40.91168793823597,176.20842210683315</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>-40.9120368219293,176.20761791773404</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>-40.91247016157851,176.20690432032603</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>-40.91293801213619,176.20623612711518</t>
+        </is>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>-40.913409130214596,176.20555774589036</t>
+        </is>
+      </c>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t>-40.9139212504729,176.204933450742</t>
+        </is>
+      </c>
+      <c r="N633" t="inlineStr">
+        <is>
+          <t>-40.91447236815012,176.20440882063903</t>
+        </is>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-40.911822768010666,176.21401439891258</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-40.910383396194135,176.21266543266736</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-40.91042760564842,176.21175809122914</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-40.91068124821995,176.2108578912809</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-40.91102016728685,176.21001226071706</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-40.91138737355198,176.2092437172472</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>-40.911728852534566,176.20845397036268</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>-40.912106563213115,176.20768393933002</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>-40.9125394210012,176.2069766964842</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>-40.91298613993889,176.20629081722106</t>
+        </is>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>-40.91346866878103,176.20564497132474</t>
+        </is>
+      </c>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>-40.91397340892492,176.20502425404578</t>
+        </is>
+      </c>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t>-40.914528330092296,176.2045062456013</t>
+        </is>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -35580,7 +35580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35671,35 +35671,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -35758,27 +35763,28 @@
       <c r="P2" t="n">
         <v>413.0029909691311</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.2127402011044 -40.907542042553445, 176.21509650013792 -40.91545763923895)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.2127402011044</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-40.90754204255344</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>176.2150965001379</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-40.91545763923895</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.2139183506212</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-40.9114998408962</v>
       </c>
     </row>
@@ -35835,27 +35841,28 @@
       <c r="P3" t="n">
         <v>303.6500086048778</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.21185935216846 -40.90767518052808, 176.2142155861762 -40.915590786859866)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.2118593521685</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-40.90767518052808</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>176.2142155861762</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-40.91559078685987</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.2130374691723</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-40.91163298369398</v>
       </c>
     </row>
@@ -35912,27 +35919,28 @@
       <c r="P4" t="n">
         <v>300.6940112724434</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.2109785032328 -40.90780831823499, 176.21333467221373 -40.91572393421192)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.2109785032328</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-40.90780831823499</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>176.2133346722137</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-40.91572393421192</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.2121565877233</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-40.91176612622345</v>
       </c>
     </row>
@@ -35989,27 +35997,28 @@
       <c r="P5" t="n">
         <v>312.2539438243869</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (176.20964309869453 -40.908038594272874, 176.21316591744545 -40.915701452682825)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>176.2096430986945</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-40.90803859427287</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>176.2131659174455</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-40.91570145268282</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>176.21140450807</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-40.91187002347785</v>
       </c>
     </row>
@@ -36066,27 +36075,28 @@
       <c r="P6" t="n">
         <v>318.6231385603666</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (176.2083092486643 -40.90848293817067, 176.21316431462557 -40.915715635892134)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>176.2083092486643</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-40.90848293817067</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>176.2131643146256</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-40.91571563589213</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>176.2107367816449</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-40.9120992870314</v>
       </c>
     </row>
@@ -36143,27 +36153,28 @@
       <c r="P7" t="n">
         <v>323.9505985272604</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (176.20742843408783 -40.90881971594414, 176.21248568785728 -40.915972435310614)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>176.2074284340878</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-40.90881971594414</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>176.2124856878573</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-40.91597243531061</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>176.2099570609726</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-40.91239607562738</v>
       </c>
     </row>
@@ -36220,27 +36231,28 @@
       <c r="P8" t="n">
         <v>331.0146176620345</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (176.20647614117254 -40.9091891067725, 176.21191883754716 -40.91617753557507)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>176.2064761411725</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-40.9091891067725</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>176.2119188375472</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-40.91617753557507</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>176.2091974893598</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-40.91268332117379</v>
       </c>
     </row>
@@ -36297,27 +36309,28 @@
       <c r="P9" t="n">
         <v>334.4974167999345</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (176.20540150111592 -40.90969541936132, 176.21164366517505 -40.91628902900006)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>176.2054015011159</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-40.90969541936132</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>176.211643665175</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-40.91628902900006</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>176.2085225831455</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-40.91299222418069</v>
       </c>
     </row>
@@ -36374,27 +36387,28 @@
       <c r="P10" t="n">
         <v>336.8446353911208</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (176.204525352567 -40.91019352895986, 176.2111735704956 -40.91655522585563)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>176.204525352567</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-40.91019352895986</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>176.2111735704956</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-40.91655522585563</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>176.2078494615313</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-40.91337437740775</v>
       </c>
     </row>
@@ -36451,27 +36465,28 @@
       <c r="P11" t="n">
         <v>336.666062216355</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (176.20367507754545 -40.91068415299584, 176.21066296342218 -40.91683334674243)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>176.2036750775455</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-40.91068415299584</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>176.2106629634222</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-40.91683334674243</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>176.2071690204838</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-40.91375874986913</v>
       </c>
     </row>
@@ -36528,27 +36543,28 @@
       <c r="P12" t="n">
         <v>340.9634331940411</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (176.20263053665084 -40.911410964295484, 176.21058766864888 -40.91684217585022)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>176.2026305366508</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-40.91141096429548</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>176.2105876686489</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-40.91684217585022</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>176.2066091026498</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-40.91412657007285</v>
       </c>
     </row>
@@ -36605,27 +36621,28 @@
       <c r="P13" t="n">
         <v>336.9010912438548</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (176.20184478257443 -40.91214699000739, 176.21037941832205 -40.91704919628343)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>176.2018447825744</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-40.91214699000739</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>176.210379418322</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-40.91704919628343</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>176.2061121004483</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-40.91459809314541</v>
       </c>
     </row>
@@ -36682,27 +36699,28 @@
       <c r="P14" t="n">
         <v>347.5153436725981</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (176.2012847603688 -40.91267777782931, 176.20981941830965 -40.917579997421015)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>176.2012847603688</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-40.91267777782931</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>176.2098194183096</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-40.91757999742102</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>176.2055520893392</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-40.91512888762516</v>
       </c>
     </row>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O634"/>
+  <dimension ref="A1:O638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28972,9 +28972,7 @@
           <t>2025-02-08 22:00:47+00:00</t>
         </is>
       </c>
-      <c r="B633" t="n">
-        <v>471.9685714285715</v>
-      </c>
+      <c r="B633" t="inlineStr"/>
       <c r="C633" t="n">
         <v>301.34</v>
       </c>
@@ -29023,9 +29021,7 @@
           <t>2025-02-24 22:00:45+00:00</t>
         </is>
       </c>
-      <c r="B634" t="n">
-        <v>487.5985714285715</v>
-      </c>
+      <c r="B634" t="inlineStr"/>
       <c r="C634" t="n">
         <v>308.48</v>
       </c>
@@ -29063,6 +29059,184 @@
         <v>340.5922222222222</v>
       </c>
       <c r="O634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:40+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>328.76</v>
+      </c>
+      <c r="C635" t="n">
+        <v>303.26</v>
+      </c>
+      <c r="D635" t="n">
+        <v>296.59</v>
+      </c>
+      <c r="E635" t="n">
+        <v>304.0366666666667</v>
+      </c>
+      <c r="F635" t="n">
+        <v>307.29</v>
+      </c>
+      <c r="G635" t="n">
+        <v>308.93</v>
+      </c>
+      <c r="H635" t="n">
+        <v>316.4066666666667</v>
+      </c>
+      <c r="I635" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="J635" t="n">
+        <v>322.7636363636364</v>
+      </c>
+      <c r="K635" t="n">
+        <v>329.97</v>
+      </c>
+      <c r="L635" t="n">
+        <v>336.92</v>
+      </c>
+      <c r="M635" t="n">
+        <v>325.6066666666667</v>
+      </c>
+      <c r="N635" t="n">
+        <v>335.4466666666667</v>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:54:31+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr"/>
+      <c r="C636" t="n">
+        <v>303.9</v>
+      </c>
+      <c r="D636" t="n">
+        <v>296.22</v>
+      </c>
+      <c r="E636" t="n">
+        <v>311.7055555555555</v>
+      </c>
+      <c r="F636" t="n">
+        <v>321.69</v>
+      </c>
+      <c r="G636" t="n">
+        <v>324.55</v>
+      </c>
+      <c r="H636" t="n">
+        <v>327.2055555555555</v>
+      </c>
+      <c r="I636" t="n">
+        <v>332.3</v>
+      </c>
+      <c r="J636" t="n">
+        <v>333.1645454545454</v>
+      </c>
+      <c r="K636" t="n">
+        <v>330.79</v>
+      </c>
+      <c r="L636" t="n">
+        <v>341.53</v>
+      </c>
+      <c r="M636" t="n">
+        <v>333.2755555555556</v>
+      </c>
+      <c r="N636" t="n">
+        <v>338.2055555555555</v>
+      </c>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:43+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>320.8185714285714</v>
+      </c>
+      <c r="C637" t="n">
+        <v>300.48</v>
+      </c>
+      <c r="D637" t="n">
+        <v>298.41</v>
+      </c>
+      <c r="E637" t="n">
+        <v>311.81</v>
+      </c>
+      <c r="F637" t="n">
+        <v>315.34</v>
+      </c>
+      <c r="G637" t="n">
+        <v>318.42</v>
+      </c>
+      <c r="H637" t="n">
+        <v>323.52</v>
+      </c>
+      <c r="I637" t="n">
+        <v>322.82</v>
+      </c>
+      <c r="J637" t="n">
+        <v>326.5136363636364</v>
+      </c>
+      <c r="K637" t="n">
+        <v>337.66</v>
+      </c>
+      <c r="L637" t="n">
+        <v>341</v>
+      </c>
+      <c r="M637" t="n">
+        <v>333.53</v>
+      </c>
+      <c r="N637" t="n">
+        <v>337.19</v>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:31+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="n">
+        <v>308.49</v>
+      </c>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr"/>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr"/>
+      <c r="N638" t="inlineStr"/>
+      <c r="O638" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -29079,7 +29253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B648"/>
+  <dimension ref="A1:B652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35567,6 +35741,46 @@
       </c>
       <c r="B648" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -35740,28 +35954,28 @@
         <v>0.0383</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.85909461757647</v>
+        <v>-2.096711089093393</v>
       </c>
       <c r="J2" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K2" t="n">
         <v>242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02596529808059111</v>
+        <v>0.03325510962618961</v>
       </c>
       <c r="M2" t="n">
-        <v>78.35065959448488</v>
+        <v>77.12414862068084</v>
       </c>
       <c r="N2" t="n">
-        <v>7091.236844310941</v>
+        <v>6992.041361329992</v>
       </c>
       <c r="O2" t="n">
-        <v>84.20948191451448</v>
+        <v>83.61842716369397</v>
       </c>
       <c r="P2" t="n">
-        <v>413.0029909691311</v>
+        <v>415.3732491917974</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35818,28 +36032,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1667171176199331</v>
+        <v>-0.1593052559835912</v>
       </c>
       <c r="J3" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K3" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00496392250688793</v>
+        <v>0.004609668793899901</v>
       </c>
       <c r="M3" t="n">
-        <v>10.83448952821678</v>
+        <v>10.7767582439916</v>
       </c>
       <c r="N3" t="n">
-        <v>306.4775405877264</v>
+        <v>304.1922022858083</v>
       </c>
       <c r="O3" t="n">
-        <v>17.5064999525241</v>
+        <v>17.44110668179655</v>
       </c>
       <c r="P3" t="n">
-        <v>303.6500086048778</v>
+        <v>303.5779890403289</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35896,28 +36110,28 @@
         <v>0.0466</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3611894177146269</v>
+        <v>-0.3544591872462881</v>
       </c>
       <c r="J4" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K4" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03546329839274387</v>
+        <v>0.03459618432865585</v>
       </c>
       <c r="M4" t="n">
-        <v>10.51532405483313</v>
+        <v>10.48017438200145</v>
       </c>
       <c r="N4" t="n">
-        <v>201.9633062777029</v>
+        <v>200.8758506528372</v>
       </c>
       <c r="O4" t="n">
-        <v>14.21137946427801</v>
+        <v>14.17306779257184</v>
       </c>
       <c r="P4" t="n">
-        <v>300.6940112724434</v>
+        <v>300.6298271314653</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35974,28 +36188,28 @@
         <v>0.0475</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4694551760995324</v>
+        <v>-0.4592194681742034</v>
       </c>
       <c r="J5" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K5" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05382986295726</v>
+        <v>0.05211727339142991</v>
       </c>
       <c r="M5" t="n">
-        <v>10.52203942681049</v>
+        <v>10.51051946038921</v>
       </c>
       <c r="N5" t="n">
-        <v>212.1541508768859</v>
+        <v>211.4524363698664</v>
       </c>
       <c r="O5" t="n">
-        <v>14.56551237948346</v>
+        <v>14.54140420901181</v>
       </c>
       <c r="P5" t="n">
-        <v>312.2539438243869</v>
+        <v>312.1546636138954</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36052,28 +36266,28 @@
         <v>0.043</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5113844785117713</v>
+        <v>-0.500975245961649</v>
       </c>
       <c r="J6" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K6" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08486047761422366</v>
+        <v>0.08231126343212436</v>
       </c>
       <c r="M6" t="n">
-        <v>9.866266502928715</v>
+        <v>9.863486456022921</v>
       </c>
       <c r="N6" t="n">
-        <v>154.3569754603515</v>
+        <v>154.1519794266474</v>
       </c>
       <c r="O6" t="n">
-        <v>12.42404827181348</v>
+        <v>12.41579556156783</v>
       </c>
       <c r="P6" t="n">
-        <v>318.6231385603666</v>
+        <v>318.5220744043846</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36130,28 +36344,28 @@
         <v>0.0437</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4440429225758002</v>
+        <v>-0.4387938819375524</v>
       </c>
       <c r="J7" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K7" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08693393264169147</v>
+        <v>0.08576061511570676</v>
       </c>
       <c r="M7" t="n">
-        <v>8.423243224767058</v>
+        <v>8.414801626654146</v>
       </c>
       <c r="N7" t="n">
-        <v>113.5771731160066</v>
+        <v>113.2906829419978</v>
       </c>
       <c r="O7" t="n">
-        <v>10.65725917466619</v>
+        <v>10.64380960662102</v>
       </c>
       <c r="P7" t="n">
-        <v>323.9505985272604</v>
+        <v>323.8995886486804</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36208,28 +36422,28 @@
         <v>0.0505</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2976722743374512</v>
+        <v>-0.2988062520468289</v>
       </c>
       <c r="J8" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K8" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04408892382340623</v>
+        <v>0.04488760443182038</v>
       </c>
       <c r="M8" t="n">
-        <v>8.036611405269817</v>
+        <v>8.012308967894541</v>
       </c>
       <c r="N8" t="n">
-        <v>104.6513961526175</v>
+        <v>104.1770305621015</v>
       </c>
       <c r="O8" t="n">
-        <v>10.22992649790884</v>
+        <v>10.20671497407964</v>
       </c>
       <c r="P8" t="n">
-        <v>331.0146176620345</v>
+        <v>331.0255603392055</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36286,28 +36500,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2617499204255134</v>
+        <v>-0.2654765652930734</v>
       </c>
       <c r="J9" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K9" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03442679682741856</v>
+        <v>0.03571755354652018</v>
       </c>
       <c r="M9" t="n">
-        <v>7.775239050504583</v>
+        <v>7.768303796682951</v>
       </c>
       <c r="N9" t="n">
-        <v>105.0200006711841</v>
+        <v>104.6822780064147</v>
       </c>
       <c r="O9" t="n">
-        <v>10.24792665231285</v>
+        <v>10.23143577443629</v>
       </c>
       <c r="P9" t="n">
-        <v>334.4974167999345</v>
+        <v>334.5333633817777</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36364,28 +36578,28 @@
         <v>0.0591</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2555818457300224</v>
+        <v>-0.2587325140971614</v>
       </c>
       <c r="J10" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K10" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04947059342673266</v>
+        <v>0.05111846233409156</v>
       </c>
       <c r="M10" t="n">
-        <v>6.385016266399988</v>
+        <v>6.375429216507612</v>
       </c>
       <c r="N10" t="n">
-        <v>68.25660227684121</v>
+        <v>68.0185029034664</v>
       </c>
       <c r="O10" t="n">
-        <v>8.261755399238179</v>
+        <v>8.247333078242105</v>
       </c>
       <c r="P10" t="n">
-        <v>336.8446353911208</v>
+        <v>336.8752907570963</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36442,28 +36656,28 @@
         <v>0.0513</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1144345339067142</v>
+        <v>-0.1154928984861736</v>
       </c>
       <c r="J11" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K11" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007369273991462921</v>
+        <v>0.007594077841069025</v>
       </c>
       <c r="M11" t="n">
-        <v>7.550920380841239</v>
+        <v>7.527889734929766</v>
       </c>
       <c r="N11" t="n">
-        <v>95.61461342022801</v>
+        <v>95.13841886155288</v>
       </c>
       <c r="O11" t="n">
-        <v>9.778272517179506</v>
+        <v>9.753892497949364</v>
       </c>
       <c r="P11" t="n">
-        <v>336.666062216355</v>
+        <v>336.6762837674173</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36520,28 +36734,28 @@
         <v>0.0424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01389119474405939</v>
+        <v>-0.01477588218911556</v>
       </c>
       <c r="J12" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K12" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001057617181899895</v>
+        <v>0.0001210976684878906</v>
       </c>
       <c r="M12" t="n">
-        <v>7.666961613194214</v>
+        <v>7.632834489570262</v>
       </c>
       <c r="N12" t="n">
-        <v>98.87509702325144</v>
+        <v>98.33785936965674</v>
       </c>
       <c r="O12" t="n">
-        <v>9.943595779357256</v>
+        <v>9.916544729373067</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9634331940411</v>
+        <v>340.9720569352361</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36598,28 +36812,28 @@
         <v>0.0462</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08679940981769332</v>
+        <v>-0.09113767698926747</v>
       </c>
       <c r="J13" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K13" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004701476197752186</v>
+        <v>0.005234731218684563</v>
       </c>
       <c r="M13" t="n">
-        <v>7.356504969981798</v>
+        <v>7.336424985772759</v>
       </c>
       <c r="N13" t="n">
-        <v>87.51771344785823</v>
+        <v>87.17858699607733</v>
       </c>
       <c r="O13" t="n">
-        <v>9.355090242635729</v>
+        <v>9.33694741315797</v>
       </c>
       <c r="P13" t="n">
-        <v>336.9010912438548</v>
+        <v>336.9429918093515</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36676,28 +36890,28 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4289778850821942</v>
+        <v>-0.428476516130357</v>
       </c>
       <c r="J14" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K14" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1314646278738744</v>
+        <v>0.132683120876179</v>
       </c>
       <c r="M14" t="n">
-        <v>6.241599318828375</v>
+        <v>6.210227339008438</v>
       </c>
       <c r="N14" t="n">
-        <v>66.18823124839467</v>
+        <v>65.78800789713777</v>
       </c>
       <c r="O14" t="n">
-        <v>8.135614988947957</v>
+        <v>8.110980698851266</v>
       </c>
       <c r="P14" t="n">
-        <v>347.5153436725981</v>
+        <v>347.5104320716575</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36735,7 +36949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O634"/>
+  <dimension ref="A1:O638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77957,11 +78171,7 @@
           <t>2025-02-08 22:00:47+00:00</t>
         </is>
       </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>-40.91168554946758,176.21397355161173</t>
-        </is>
-      </c>
+      <c r="B633" t="inlineStr"/>
       <c r="C633" t="inlineStr">
         <is>
           <t>-40.91032071262346,176.2126467745105</t>
@@ -78034,11 +78244,7 @@
           <t>2025-02-24 22:00:45+00:00</t>
         </is>
       </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>-40.911822768010666,176.21401439891258</t>
-        </is>
-      </c>
+      <c r="B634" t="inlineStr"/>
       <c r="C634" t="inlineStr">
         <is>
           <t>-40.910383396194135,176.21266543266736</t>
@@ -78100,6 +78306,262 @@
         </is>
       </c>
       <c r="O634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:40+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-40.91042829491469,176.21359930031304</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-40.91033756871018,176.21265179182618</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-40.91041215420434,176.21175349215306</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-40.91062239287881,176.2108308350623</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-40.910947503593256,176.20996348599422</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-40.911269988426284,176.2091607245785</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>-40.91164093671709,176.20838550271478</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>-40.91202198179722,176.20760386913176</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>-40.91246997563851,176.20690412601886</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>-40.91293358110474,176.20623109191115</t>
+        </is>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>-40.9134392908119,176.20560193185935</t>
+        </is>
+      </c>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>-40.91391611310269,176.2049245070446</t>
+        </is>
+      </c>
+      <c r="N635" t="inlineStr">
+        <is>
+          <t>-40.91450037327988,176.20445757513872</t>
+        </is>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:54:31+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr"/>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-40.91034318740567,176.21265346426534</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-40.910408905889334,176.21175252530216</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-40.91068756527756,176.21086079528047</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>-40.911062995544675,176.2100410087844</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>-40.91139387732033,176.20924831549854</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>-40.91172461645868,176.20845067135903</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>-40.91212469301558,176.2077011021999</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>-40.91254333215018,176.2069807836445</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>-40.91293917102131,176.20623744401482</t>
+        </is>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>-40.91346704336105,176.20564259004186</t>
+        </is>
+      </c>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>-40.913957779508,176.20499704456878</t>
+        </is>
+      </c>
+      <c r="N636" t="inlineStr">
+        <is>
+          <t>-40.914515362867014,176.2044836707412</t>
+        </is>
+      </c>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:43+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-40.91035857558567,176.2135785471956</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-40.91031316250117,176.2126445271721</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-40.910428132402195,176.21175824801588</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-40.910688452876066,176.2108612033163</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-40.91101206681012,176.21000682335284</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-40.9113452576808,176.20921394078857</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>-40.91169605738318,176.20842842991672</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>-40.912055390367634,176.20763549579718</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>-40.912496423998554,176.20693176455387</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>-40.91298600359954,176.20629066229145</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>-40.91346385272172,176.20563791567207</t>
+        </is>
+      </c>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>-40.91395916194802,176.2049994512775</t>
+        </is>
+      </c>
+      <c r="N637" t="inlineStr">
+        <is>
+          <t>-40.91450984515425,176.20447406486767</t>
+        </is>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:31+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-40.91038348398625,176.21266545879928</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr"/>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr"/>
+      <c r="N638" t="inlineStr"/>
+      <c r="O638" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O638"/>
+  <dimension ref="A1:O642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29242,6 +29242,208 @@
         </is>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:01+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>301.2157142857143</v>
+      </c>
+      <c r="C639" t="n">
+        <v>302.25</v>
+      </c>
+      <c r="D639" t="n">
+        <v>298.06</v>
+      </c>
+      <c r="E639" t="n">
+        <v>312.5744444444445</v>
+      </c>
+      <c r="F639" t="n">
+        <v>315.39</v>
+      </c>
+      <c r="G639" t="n">
+        <v>319.57</v>
+      </c>
+      <c r="H639" t="n">
+        <v>325.4944444444445</v>
+      </c>
+      <c r="I639" t="n">
+        <v>327.73</v>
+      </c>
+      <c r="J639" t="n">
+        <v>331.3281818181818</v>
+      </c>
+      <c r="K639" t="n">
+        <v>340.15</v>
+      </c>
+      <c r="L639" t="n">
+        <v>344.35</v>
+      </c>
+      <c r="M639" t="n">
+        <v>332.3144444444445</v>
+      </c>
+      <c r="N639" t="n">
+        <v>336.7044444444444</v>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:11+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>233.0257142857143</v>
+      </c>
+      <c r="C640" t="n">
+        <v>293</v>
+      </c>
+      <c r="D640" t="n">
+        <v>282.25</v>
+      </c>
+      <c r="E640" t="n">
+        <v>303.1433333333333</v>
+      </c>
+      <c r="F640" t="n">
+        <v>314.26</v>
+      </c>
+      <c r="G640" t="n">
+        <v>317.02</v>
+      </c>
+      <c r="H640" t="n">
+        <v>322.3433333333333</v>
+      </c>
+      <c r="I640" t="n">
+        <v>321.13</v>
+      </c>
+      <c r="J640" t="n">
+        <v>333.3872727272728</v>
+      </c>
+      <c r="K640" t="n">
+        <v>339.05</v>
+      </c>
+      <c r="L640" t="n">
+        <v>346.22</v>
+      </c>
+      <c r="M640" t="n">
+        <v>337.5233333333333</v>
+      </c>
+      <c r="N640" t="n">
+        <v>335.2233333333333</v>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:54:17+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>220.2314285714286</v>
+      </c>
+      <c r="C641" t="n">
+        <v>289.59</v>
+      </c>
+      <c r="D641" t="n">
+        <v>284.82</v>
+      </c>
+      <c r="E641" t="n">
+        <v>303.5866666666667</v>
+      </c>
+      <c r="F641" t="n">
+        <v>319.49</v>
+      </c>
+      <c r="G641" t="n">
+        <v>324.08</v>
+      </c>
+      <c r="H641" t="n">
+        <v>325.4166666666667</v>
+      </c>
+      <c r="I641" t="n">
+        <v>322.99</v>
+      </c>
+      <c r="J641" t="n">
+        <v>331.0945454545454</v>
+      </c>
+      <c r="K641" t="n">
+        <v>341.38</v>
+      </c>
+      <c r="L641" t="n">
+        <v>345.97</v>
+      </c>
+      <c r="M641" t="n">
+        <v>336.3066666666667</v>
+      </c>
+      <c r="N641" t="n">
+        <v>343.7166666666667</v>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="n">
+        <v>288.59</v>
+      </c>
+      <c r="D642" t="n">
+        <v>278.54</v>
+      </c>
+      <c r="E642" t="n">
+        <v>308.4644444444444</v>
+      </c>
+      <c r="F642" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="G642" t="n">
+        <v>324.09</v>
+      </c>
+      <c r="H642" t="n">
+        <v>323.7944444444445</v>
+      </c>
+      <c r="I642" t="n">
+        <v>331.71</v>
+      </c>
+      <c r="J642" t="n">
+        <v>333.9427272727273</v>
+      </c>
+      <c r="K642" t="n">
+        <v>334.84</v>
+      </c>
+      <c r="L642" t="n">
+        <v>340.19</v>
+      </c>
+      <c r="M642" t="n">
+        <v>337.1344444444445</v>
+      </c>
+      <c r="N642" t="n">
+        <v>348.1744444444445</v>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29253,7 +29455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B652"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35781,6 +35983,46 @@
       </c>
       <c r="B652" t="n">
         <v>-0.23</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -35954,28 +36196,28 @@
         <v>0.0383</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.096711089093393</v>
+        <v>-2.345902539828269</v>
       </c>
       <c r="J2" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K2" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03325510962618961</v>
+        <v>0.0413281873713468</v>
       </c>
       <c r="M2" t="n">
-        <v>77.12414862068084</v>
+        <v>76.84506724199719</v>
       </c>
       <c r="N2" t="n">
-        <v>6992.041361329992</v>
+        <v>7064.631907648109</v>
       </c>
       <c r="O2" t="n">
-        <v>83.61842716369397</v>
+        <v>84.05136469830879</v>
       </c>
       <c r="P2" t="n">
-        <v>415.3732491917974</v>
+        <v>417.8860990337698</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36032,28 +36274,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1593052559835912</v>
+        <v>-0.1689291650920956</v>
       </c>
       <c r="J3" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K3" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004609668793899901</v>
+        <v>0.005260431335101123</v>
       </c>
       <c r="M3" t="n">
-        <v>10.7767582439916</v>
+        <v>10.7578732316484</v>
       </c>
       <c r="N3" t="n">
-        <v>304.1922022858083</v>
+        <v>302.239959069922</v>
       </c>
       <c r="O3" t="n">
-        <v>17.44110668179655</v>
+        <v>17.38504987251753</v>
       </c>
       <c r="P3" t="n">
-        <v>303.5779890403289</v>
+        <v>303.6721049997223</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36110,28 +36352,28 @@
         <v>0.0466</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3544591872462881</v>
+        <v>-0.3632771654926193</v>
       </c>
       <c r="J4" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K4" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03459618432865585</v>
+        <v>0.03675595383168873</v>
       </c>
       <c r="M4" t="n">
-        <v>10.48017438200145</v>
+        <v>10.47082674740349</v>
       </c>
       <c r="N4" t="n">
-        <v>200.8758506528372</v>
+        <v>199.8917764115564</v>
       </c>
       <c r="O4" t="n">
-        <v>14.17306779257184</v>
+        <v>14.1383088243098</v>
       </c>
       <c r="P4" t="n">
-        <v>300.6298271314653</v>
+        <v>300.7145934078229</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36188,28 +36430,28 @@
         <v>0.0475</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4592194681742034</v>
+        <v>-0.4492740051973695</v>
       </c>
       <c r="J5" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K5" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05211727339142991</v>
+        <v>0.05068869841173462</v>
       </c>
       <c r="M5" t="n">
-        <v>10.51051946038921</v>
+        <v>10.47772112835622</v>
       </c>
       <c r="N5" t="n">
-        <v>211.4524363698664</v>
+        <v>210.2635493438127</v>
       </c>
       <c r="O5" t="n">
-        <v>14.54140420901181</v>
+        <v>14.50046721122505</v>
       </c>
       <c r="P5" t="n">
-        <v>312.1546636138954</v>
+        <v>312.0576271544981</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36266,28 +36508,28 @@
         <v>0.043</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.500975245961649</v>
+        <v>-0.4831240676698361</v>
       </c>
       <c r="J6" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K6" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08231126343212436</v>
+        <v>0.07762874860489299</v>
       </c>
       <c r="M6" t="n">
-        <v>9.863486456022921</v>
+        <v>9.880586459069999</v>
       </c>
       <c r="N6" t="n">
-        <v>154.1519794266474</v>
+        <v>154.1206839132991</v>
       </c>
       <c r="O6" t="n">
-        <v>12.41579556156783</v>
+        <v>12.41453518716263</v>
       </c>
       <c r="P6" t="n">
-        <v>318.5220744043846</v>
+        <v>318.3476870513498</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36344,28 +36586,28 @@
         <v>0.0437</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4387938819375524</v>
+        <v>-0.4262235262556865</v>
       </c>
       <c r="J7" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K7" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08576061511570676</v>
+        <v>0.08211173097071711</v>
       </c>
       <c r="M7" t="n">
-        <v>8.414801626654146</v>
+        <v>8.412249810352504</v>
       </c>
       <c r="N7" t="n">
-        <v>113.2906829419978</v>
+        <v>113.0486151468066</v>
       </c>
       <c r="O7" t="n">
-        <v>10.64380960662102</v>
+        <v>10.63243223099995</v>
       </c>
       <c r="P7" t="n">
-        <v>323.8995886486804</v>
+        <v>323.7767641628781</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36422,28 +36664,28 @@
         <v>0.0505</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2988062520468289</v>
+        <v>-0.2974349309235064</v>
       </c>
       <c r="J8" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K8" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04488760443182038</v>
+        <v>0.04518991813579243</v>
       </c>
       <c r="M8" t="n">
-        <v>8.012308967894541</v>
+        <v>7.961935841442092</v>
       </c>
       <c r="N8" t="n">
-        <v>104.1770305621015</v>
+        <v>103.4126953419916</v>
       </c>
       <c r="O8" t="n">
-        <v>10.20671497407964</v>
+        <v>10.16920327960807</v>
       </c>
       <c r="P8" t="n">
-        <v>331.0255603392055</v>
+        <v>331.0121860702588</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36500,28 +36742,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2654765652930734</v>
+        <v>-0.2681430621568366</v>
       </c>
       <c r="J9" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K9" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03571755354652018</v>
+        <v>0.03693956072726157</v>
       </c>
       <c r="M9" t="n">
-        <v>7.768303796682951</v>
+        <v>7.739669118229997</v>
       </c>
       <c r="N9" t="n">
-        <v>104.6822780064147</v>
+        <v>104.0513688204093</v>
       </c>
       <c r="O9" t="n">
-        <v>10.23143577443629</v>
+        <v>10.20055727989453</v>
       </c>
       <c r="P9" t="n">
-        <v>334.5333633817777</v>
+        <v>334.5592648310492</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36578,28 +36820,28 @@
         <v>0.0591</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2587325140971614</v>
+        <v>-0.2554537199130482</v>
       </c>
       <c r="J10" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K10" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05111846233409156</v>
+        <v>0.05063641993775314</v>
       </c>
       <c r="M10" t="n">
-        <v>6.375429216507612</v>
+        <v>6.344004071255838</v>
       </c>
       <c r="N10" t="n">
-        <v>68.0185029034664</v>
+        <v>67.55502354936351</v>
       </c>
       <c r="O10" t="n">
-        <v>8.247333078242105</v>
+        <v>8.219186307011389</v>
       </c>
       <c r="P10" t="n">
-        <v>336.8752907570963</v>
+        <v>336.8431351570029</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36656,28 +36898,28 @@
         <v>0.0513</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1154928984861736</v>
+        <v>-0.1077162959808589</v>
       </c>
       <c r="J11" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K11" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007594077841069025</v>
+        <v>0.006706466641981268</v>
       </c>
       <c r="M11" t="n">
-        <v>7.527889734929766</v>
+        <v>7.509073347080101</v>
       </c>
       <c r="N11" t="n">
-        <v>95.13841886155288</v>
+        <v>94.6578022496205</v>
       </c>
       <c r="O11" t="n">
-        <v>9.753892497949364</v>
+        <v>9.72922413400064</v>
       </c>
       <c r="P11" t="n">
-        <v>336.6762837674173</v>
+        <v>336.6004151861221</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36734,28 +36976,28 @@
         <v>0.0424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01477588218911556</v>
+        <v>-0.009453280631613912</v>
       </c>
       <c r="J12" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K12" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001210976684878906</v>
+        <v>5.031168298741395e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>7.632834489570262</v>
+        <v>7.602568606977951</v>
       </c>
       <c r="N12" t="n">
-        <v>98.33785936965674</v>
+        <v>97.7335456170679</v>
       </c>
       <c r="O12" t="n">
-        <v>9.916544729373067</v>
+        <v>9.886027797708637</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9720569352361</v>
+        <v>340.9196858461146</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36812,28 +37054,28 @@
         <v>0.0462</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09113767698926747</v>
+        <v>-0.08932617576984611</v>
       </c>
       <c r="J13" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K13" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005234731218684563</v>
+        <v>0.005109656333509349</v>
       </c>
       <c r="M13" t="n">
-        <v>7.336424985772759</v>
+        <v>7.298641259273173</v>
       </c>
       <c r="N13" t="n">
-        <v>87.17858699607733</v>
+        <v>86.56171778392925</v>
       </c>
       <c r="O13" t="n">
-        <v>9.33694741315797</v>
+        <v>9.303854995856785</v>
       </c>
       <c r="P13" t="n">
-        <v>336.9429918093515</v>
+        <v>336.9253394340565</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36890,28 +37132,28 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.428476516130357</v>
+        <v>-0.4213545685387556</v>
       </c>
       <c r="J14" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K14" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L14" t="n">
-        <v>0.132683120876179</v>
+        <v>0.1301696776814658</v>
       </c>
       <c r="M14" t="n">
-        <v>6.210227339008438</v>
+        <v>6.202762584104581</v>
       </c>
       <c r="N14" t="n">
-        <v>65.78800789713777</v>
+        <v>65.6360291379429</v>
       </c>
       <c r="O14" t="n">
-        <v>8.110980698851266</v>
+        <v>8.101606577583418</v>
       </c>
       <c r="P14" t="n">
-        <v>347.5104320716575</v>
+        <v>347.44034507711</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36949,7 +37191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O638"/>
+  <dimension ref="A1:O642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78567,6 +78809,310 @@
         </is>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:01+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-40.910186478306024,176.213527319793</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-40.91032870170628,176.2126491525087</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-40.91042505967187,176.21175733342668</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-40.91069494934177,176.2108641897919</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-40.91101246782383,176.21000709252925</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>-40.91135437882131,176.20922038954748</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>-40.911711357196054,176.2084403452121</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>-40.912091284466,176.2076694754672</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>-40.912530380475914,176.20696724911548</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>-40.913002977845935,176.20630995103053</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>-40.91348401996688,176.2056674612244</t>
+        </is>
+      </c>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>-40.91395255762711,176.20498795372663</t>
+        </is>
+      </c>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>-40.91450720703524,176.2044694721256</t>
+        </is>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:11+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-40.90958782480019,176.2133491237404</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-40.910247493992685,176.21262498057825</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-40.910286260040756,176.21171602022372</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-40.910614801077394,176.21082734506123</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-40.91100340491387,176.2100010091431</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-40.91133415368306,176.20920609012805</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>-40.911686939486124,176.20842132902024</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-40.912043035777124,176.20762380015563</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>-40.912544903021434,176.20698242520902</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>-40.91299547918332,176.20630142989958</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>-40.91349527750012,176.20568395382412</t>
+        </is>
+      </c>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>-40.91398085840122,176.20503722295507</t>
+        </is>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>-40.914499159865585,176.2044554626881</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:54:17+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-40.9094755011838,176.21331568974384</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-40.91021755687671,176.21261606964526</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-40.91030882266428,176.21172273589266</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-40.91061856865051,176.21082907703928</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-40.91104535094514,176.2100291650067</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-40.91139014955069,176.20924567991537</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-40.91171075450226,176.2084398758419</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-40.912056633137,176.20763667228206</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-40.91252873266376,176.20696552714853</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>-40.9130113627133,176.20631947920648</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>-40.91349377248247,176.20568174893077</t>
+        </is>
+      </c>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>-40.91397424804752,176.2050257148871</t>
+        </is>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>-40.91454530580085,176.20453579892293</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-40.91020877766362,176.2126134564701</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-40.91025368909283,176.2117063256288</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-40.91066002139489,176.21084813315224</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-40.91106147169295,176.21003998591243</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-40.91139022886494,176.2092457359916</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-40.91169818403143,176.20843008612232</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-40.91212037987736,176.2076970190969</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-40.91254882058188,176.20698651907028</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>-40.912966779749816,176.2062688172255</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>-40.913458976461186,176.20563077182481</t>
+        </is>
+      </c>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>-40.91397874550292,176.20503354457693</t>
+        </is>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>-40.914569525752064,176.20457796392967</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O642"/>
+  <dimension ref="A1:O643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29444,6 +29444,53 @@
         </is>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="D643" t="n">
+        <v>287.17</v>
+      </c>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="n">
+        <v>291.94</v>
+      </c>
+      <c r="G643" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="H643" t="n">
+        <v>313.5466666666667</v>
+      </c>
+      <c r="I643" t="n">
+        <v>309.51</v>
+      </c>
+      <c r="J643" t="n">
+        <v>318.8536363636364</v>
+      </c>
+      <c r="K643" t="n">
+        <v>314.04</v>
+      </c>
+      <c r="L643" t="n">
+        <v>331.26</v>
+      </c>
+      <c r="M643" t="n">
+        <v>325.4666666666667</v>
+      </c>
+      <c r="N643" t="n">
+        <v>328.8866666666667</v>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29455,7 +29502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B656"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36023,6 +36070,16 @@
       </c>
       <c r="B656" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -36199,7 +36256,7 @@
         <v>-2.345902539828269</v>
       </c>
       <c r="J2" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K2" t="n">
         <v>245</v>
@@ -36274,28 +36331,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1689291650920956</v>
+        <v>-0.1672910205861768</v>
       </c>
       <c r="J3" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K3" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005260431335101123</v>
+        <v>0.005180614548891516</v>
       </c>
       <c r="M3" t="n">
-        <v>10.7578732316484</v>
+        <v>10.74306849570661</v>
       </c>
       <c r="N3" t="n">
-        <v>302.239959069922</v>
+        <v>301.6586175665171</v>
       </c>
       <c r="O3" t="n">
-        <v>17.38504987251753</v>
+        <v>17.36832224385871</v>
       </c>
       <c r="P3" t="n">
-        <v>303.6721049997223</v>
+        <v>303.6560618384324</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36352,28 +36409,28 @@
         <v>0.0466</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3632771654926193</v>
+        <v>-0.3649185620544132</v>
       </c>
       <c r="J4" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K4" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03675595383168873</v>
+        <v>0.03722197787780945</v>
       </c>
       <c r="M4" t="n">
-        <v>10.47082674740349</v>
+        <v>10.45840908792237</v>
       </c>
       <c r="N4" t="n">
-        <v>199.8917764115564</v>
+        <v>199.5066994543827</v>
       </c>
       <c r="O4" t="n">
-        <v>14.1383088243098</v>
+        <v>14.12468404794892</v>
       </c>
       <c r="P4" t="n">
-        <v>300.7145934078229</v>
+        <v>300.7303901408116</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36433,7 +36490,7 @@
         <v>-0.4492740051973695</v>
       </c>
       <c r="J5" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K5" t="n">
         <v>518</v>
@@ -36508,28 +36565,28 @@
         <v>0.043</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4831240676698361</v>
+        <v>-0.4882886346568924</v>
       </c>
       <c r="J6" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K6" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07762874860489299</v>
+        <v>0.0792856676814907</v>
       </c>
       <c r="M6" t="n">
-        <v>9.880586459069999</v>
+        <v>9.887625247609108</v>
       </c>
       <c r="N6" t="n">
-        <v>154.1206839132991</v>
+        <v>154.1955386677247</v>
       </c>
       <c r="O6" t="n">
-        <v>12.41453518716263</v>
+        <v>12.41754962412974</v>
       </c>
       <c r="P6" t="n">
-        <v>318.3476870513498</v>
+        <v>318.3982351032674</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36586,28 +36643,28 @@
         <v>0.0437</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4262235262556865</v>
+        <v>-0.428521517702433</v>
       </c>
       <c r="J7" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K7" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08211173097071711</v>
+        <v>0.08317885076628051</v>
       </c>
       <c r="M7" t="n">
-        <v>8.412249810352504</v>
+        <v>8.408835236506514</v>
       </c>
       <c r="N7" t="n">
-        <v>113.0486151468066</v>
+        <v>112.9100533462508</v>
       </c>
       <c r="O7" t="n">
-        <v>10.63243223099995</v>
+        <v>10.62591423578465</v>
       </c>
       <c r="P7" t="n">
-        <v>323.7767641628781</v>
+        <v>323.7992602707237</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36664,28 +36721,28 @@
         <v>0.0505</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2974349309235064</v>
+        <v>-0.3010572950228321</v>
       </c>
       <c r="J8" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K8" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04518991813579243</v>
+        <v>0.04634860312477129</v>
       </c>
       <c r="M8" t="n">
-        <v>7.961935841442092</v>
+        <v>7.967498035901255</v>
       </c>
       <c r="N8" t="n">
-        <v>103.4126953419916</v>
+        <v>103.3977451697479</v>
       </c>
       <c r="O8" t="n">
-        <v>10.16920327960807</v>
+        <v>10.16846818206891</v>
       </c>
       <c r="P8" t="n">
-        <v>331.0121860702588</v>
+        <v>331.0476016075335</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36742,28 +36799,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2681430621568366</v>
+        <v>-0.2748120337912623</v>
       </c>
       <c r="J9" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K9" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03693956072726157</v>
+        <v>0.03866046308171722</v>
       </c>
       <c r="M9" t="n">
-        <v>7.739669118229997</v>
+        <v>7.761299851044074</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0513688204093</v>
+        <v>104.4673636500127</v>
       </c>
       <c r="O9" t="n">
-        <v>10.20055727989453</v>
+        <v>10.22092772941932</v>
       </c>
       <c r="P9" t="n">
-        <v>334.5592648310492</v>
+        <v>334.6242164633567</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36820,28 +36877,28 @@
         <v>0.0591</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2554537199130482</v>
+        <v>-0.2596515449582554</v>
       </c>
       <c r="J10" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K10" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05063641993775314</v>
+        <v>0.05224745176619139</v>
       </c>
       <c r="M10" t="n">
-        <v>6.344004071255838</v>
+        <v>6.353614521420285</v>
       </c>
       <c r="N10" t="n">
-        <v>67.55502354936351</v>
+        <v>67.67087434794236</v>
       </c>
       <c r="O10" t="n">
-        <v>8.219186307011389</v>
+        <v>8.226230871300803</v>
       </c>
       <c r="P10" t="n">
-        <v>336.8431351570029</v>
+        <v>336.8843744216423</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36898,28 +36955,28 @@
         <v>0.0513</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1077162959808589</v>
+        <v>-0.1151712884944049</v>
       </c>
       <c r="J11" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K11" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006706466641981268</v>
+        <v>0.007631951722876118</v>
       </c>
       <c r="M11" t="n">
-        <v>7.509073347080101</v>
+        <v>7.532840051768238</v>
       </c>
       <c r="N11" t="n">
-        <v>94.6578022496205</v>
+        <v>95.21640258081952</v>
       </c>
       <c r="O11" t="n">
-        <v>9.72922413400064</v>
+        <v>9.757889248234964</v>
       </c>
       <c r="P11" t="n">
-        <v>336.6004151861221</v>
+        <v>336.6733111677554</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36976,28 +37033,28 @@
         <v>0.0424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.009453280631613912</v>
+        <v>-0.01293796642380224</v>
       </c>
       <c r="J12" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K12" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L12" t="n">
-        <v>5.031168298741395e-05</v>
+        <v>9.445436749755398e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>7.602568606977951</v>
+        <v>7.606678517870842</v>
       </c>
       <c r="N12" t="n">
-        <v>97.7335456170679</v>
+        <v>97.71544282204098</v>
       </c>
       <c r="O12" t="n">
-        <v>9.886027797708637</v>
+        <v>9.885112180549141</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9196858461146</v>
+        <v>340.9540536917124</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37054,28 +37111,28 @@
         <v>0.0462</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08932617576984611</v>
+        <v>-0.09270522154945422</v>
       </c>
       <c r="J13" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K13" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005109656333509349</v>
+        <v>0.005513521192413773</v>
       </c>
       <c r="M13" t="n">
-        <v>7.298641259273173</v>
+        <v>7.302272072407214</v>
       </c>
       <c r="N13" t="n">
-        <v>86.56171778392925</v>
+        <v>86.55562544760097</v>
       </c>
       <c r="O13" t="n">
-        <v>9.303854995856785</v>
+        <v>9.303527580848083</v>
       </c>
       <c r="P13" t="n">
-        <v>336.9253394340565</v>
+        <v>336.9582982491426</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37132,28 +37189,28 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4213545685387556</v>
+        <v>-0.4244062522132271</v>
       </c>
       <c r="J14" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K14" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1301696776814658</v>
+        <v>0.1320947839923591</v>
       </c>
       <c r="M14" t="n">
-        <v>6.202762584104581</v>
+        <v>6.204897238130216</v>
       </c>
       <c r="N14" t="n">
-        <v>65.6360291379429</v>
+        <v>65.6220789361216</v>
       </c>
       <c r="O14" t="n">
-        <v>8.101606577583418</v>
+        <v>8.100745579026761</v>
       </c>
       <c r="P14" t="n">
-        <v>347.44034507711</v>
+        <v>347.4704155905773</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37191,7 +37248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O642"/>
+  <dimension ref="A1:O643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58860,7 +58917,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>-40.91106211331473,176.21004041659538</t>
+          <t>-40.911062113314735,176.21004041659538</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -71434,7 +71491,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>-40.910900825578004,176.2099321539459</t>
+          <t>-40.91090082557801,176.2099321539459</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -79113,6 +79170,75 @@
         </is>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-40.91033967572099,176.2126524189908</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-40.91032945385643,176.21172887668385</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-40.91082439231046,176.20988084916144</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-40.91125071505072,176.20914709810856</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-40.911618774794405,176.20836824334495</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-40.91195808879219,176.20754338408955</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>-40.91244239880704,176.20687530826342</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>-40.91282498667148,176.20610769089234</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>-40.9134052171617,176.2055520131827</t>
+        </is>
+      </c>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>-40.913915352457906,176.20492318283098</t>
+        </is>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>-40.91446473148122,176.20439552587524</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O643"/>
+  <dimension ref="A1:O644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29491,6 +29491,51 @@
         </is>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="n">
+        <v>280.91</v>
+      </c>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="n">
+        <v>307.86</v>
+      </c>
+      <c r="G644" t="n">
+        <v>319.54</v>
+      </c>
+      <c r="H644" t="n">
+        <v>320.4388888888889</v>
+      </c>
+      <c r="I644" t="n">
+        <v>319.45</v>
+      </c>
+      <c r="J644" t="n">
+        <v>323.9390909090909</v>
+      </c>
+      <c r="K644" t="n">
+        <v>305.24</v>
+      </c>
+      <c r="L644" t="n">
+        <v>335.26</v>
+      </c>
+      <c r="M644" t="n">
+        <v>329.3588888888889</v>
+      </c>
+      <c r="N644" t="n">
+        <v>338.0088888888889</v>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29502,7 +29547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36080,6 +36125,16 @@
       </c>
       <c r="B657" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -36256,7 +36311,7 @@
         <v>-2.345902539828269</v>
       </c>
       <c r="J2" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K2" t="n">
         <v>245</v>
@@ -36334,7 +36389,7 @@
         <v>-0.1672910205861768</v>
       </c>
       <c r="J3" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K3" t="n">
         <v>490</v>
@@ -36409,28 +36464,28 @@
         <v>0.0466</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3649185620544132</v>
+        <v>-0.3689924242055961</v>
       </c>
       <c r="J4" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K4" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03722197787780945</v>
+        <v>0.03814005674523524</v>
       </c>
       <c r="M4" t="n">
-        <v>10.45840908792237</v>
+        <v>10.46024059011441</v>
       </c>
       <c r="N4" t="n">
-        <v>199.5066994543827</v>
+        <v>199.312814586592</v>
       </c>
       <c r="O4" t="n">
-        <v>14.12468404794892</v>
+        <v>14.11781904497263</v>
       </c>
       <c r="P4" t="n">
-        <v>300.7303901408116</v>
+        <v>300.7696909284493</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36490,7 +36545,7 @@
         <v>-0.4492740051973695</v>
       </c>
       <c r="J5" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K5" t="n">
         <v>518</v>
@@ -36565,28 +36620,28 @@
         <v>0.043</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4882886346568924</v>
+        <v>-0.4875233986676871</v>
       </c>
       <c r="J6" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K6" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0792856676814907</v>
+        <v>0.07934771318442757</v>
       </c>
       <c r="M6" t="n">
-        <v>9.887625247609108</v>
+        <v>9.872863836960745</v>
       </c>
       <c r="N6" t="n">
-        <v>154.1955386677247</v>
+        <v>153.9115771070427</v>
       </c>
       <c r="O6" t="n">
-        <v>12.41754962412974</v>
+        <v>12.40611047456223</v>
       </c>
       <c r="P6" t="n">
-        <v>318.3982351032674</v>
+        <v>318.3907286387166</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36643,28 +36698,28 @@
         <v>0.0437</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.428521517702433</v>
+        <v>-0.4260387159873926</v>
       </c>
       <c r="J7" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K7" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08317885076628051</v>
+        <v>0.08253988315215799</v>
       </c>
       <c r="M7" t="n">
-        <v>8.408835236506514</v>
+        <v>8.405135900873892</v>
       </c>
       <c r="N7" t="n">
-        <v>112.9100533462508</v>
+        <v>112.7846302879961</v>
       </c>
       <c r="O7" t="n">
-        <v>10.62591423578465</v>
+        <v>10.62001084217884</v>
       </c>
       <c r="P7" t="n">
-        <v>323.7992602707237</v>
+        <v>323.7749003664647</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36721,28 +36776,28 @@
         <v>0.0505</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3010572950228321</v>
+        <v>-0.3021033592173362</v>
       </c>
       <c r="J8" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K8" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04634860312477129</v>
+        <v>0.04683053031214346</v>
       </c>
       <c r="M8" t="n">
-        <v>7.967498035901255</v>
+        <v>7.958471235153636</v>
       </c>
       <c r="N8" t="n">
-        <v>103.3977451697479</v>
+        <v>103.2190719342067</v>
       </c>
       <c r="O8" t="n">
-        <v>10.16846818206891</v>
+        <v>10.15967873184023</v>
       </c>
       <c r="P8" t="n">
-        <v>331.0476016075335</v>
+        <v>331.0578514073227</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36799,28 +36854,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2748120337912623</v>
+        <v>-0.2777771386509136</v>
       </c>
       <c r="J9" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K9" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03866046308171722</v>
+        <v>0.03957589811400308</v>
       </c>
       <c r="M9" t="n">
-        <v>7.761299851044074</v>
+        <v>7.762936683346807</v>
       </c>
       <c r="N9" t="n">
-        <v>104.4673636500127</v>
+        <v>104.3936133263666</v>
       </c>
       <c r="O9" t="n">
-        <v>10.22092772941932</v>
+        <v>10.21731928278483</v>
       </c>
       <c r="P9" t="n">
-        <v>334.6242164633567</v>
+        <v>334.6531583395205</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36877,28 +36932,28 @@
         <v>0.0591</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2596515449582554</v>
+        <v>-0.2619447300025051</v>
       </c>
       <c r="J10" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K10" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05224745176619139</v>
+        <v>0.05327333281846813</v>
       </c>
       <c r="M10" t="n">
-        <v>6.353614521420285</v>
+        <v>6.35341610482717</v>
       </c>
       <c r="N10" t="n">
-        <v>67.67087434794236</v>
+        <v>67.61664312487478</v>
       </c>
       <c r="O10" t="n">
-        <v>8.226230871300803</v>
+        <v>8.222933973033882</v>
       </c>
       <c r="P10" t="n">
-        <v>336.8843744216423</v>
+        <v>336.9069524810135</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36955,28 +37010,28 @@
         <v>0.0513</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1151712884944049</v>
+        <v>-0.1258759731709862</v>
       </c>
       <c r="J11" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K11" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007631951722876118</v>
+        <v>0.008997560012885653</v>
       </c>
       <c r="M11" t="n">
-        <v>7.532840051768238</v>
+        <v>7.573028816052398</v>
       </c>
       <c r="N11" t="n">
-        <v>95.21640258081952</v>
+        <v>96.56077337211413</v>
       </c>
       <c r="O11" t="n">
-        <v>9.757889248234964</v>
+        <v>9.826534148524297</v>
       </c>
       <c r="P11" t="n">
-        <v>336.6733111677554</v>
+        <v>336.7782109862968</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37033,28 +37088,28 @@
         <v>0.0424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01293796642380224</v>
+        <v>-0.01491838590926499</v>
       </c>
       <c r="J12" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K12" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L12" t="n">
-        <v>9.445436749755398e-05</v>
+        <v>0.0001260164108208839</v>
       </c>
       <c r="M12" t="n">
-        <v>7.606678517870842</v>
+        <v>7.602776443443677</v>
       </c>
       <c r="N12" t="n">
-        <v>97.71544282204098</v>
+        <v>97.585206368374</v>
       </c>
       <c r="O12" t="n">
-        <v>9.885112180549141</v>
+        <v>9.878522479013448</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9540536917124</v>
+        <v>340.9736289163925</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37111,28 +37166,28 @@
         <v>0.0462</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09270522154945422</v>
+        <v>-0.09462307417632328</v>
       </c>
       <c r="J13" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K13" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005513521192413773</v>
+        <v>0.005762432173119225</v>
       </c>
       <c r="M13" t="n">
-        <v>7.302272072407214</v>
+        <v>7.298352965398925</v>
       </c>
       <c r="N13" t="n">
-        <v>86.55562544760097</v>
+        <v>86.44313642561062</v>
       </c>
       <c r="O13" t="n">
-        <v>9.303527580848083</v>
+        <v>9.297480111600702</v>
       </c>
       <c r="P13" t="n">
-        <v>336.9582982491426</v>
+        <v>336.977046524798</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37189,28 +37244,28 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4244062522132271</v>
+        <v>-0.4238131473286947</v>
       </c>
       <c r="J14" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K14" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1320947839923591</v>
+        <v>0.1322586689336952</v>
       </c>
       <c r="M14" t="n">
-        <v>6.204897238130216</v>
+        <v>6.195451734385806</v>
       </c>
       <c r="N14" t="n">
-        <v>65.6220789361216</v>
+        <v>65.49297104009598</v>
       </c>
       <c r="O14" t="n">
-        <v>8.100745579026761</v>
+        <v>8.092772765875488</v>
       </c>
       <c r="P14" t="n">
-        <v>347.4704155905773</v>
+        <v>347.4645581677581</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37248,7 +37303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O643"/>
+  <dimension ref="A1:O644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79239,6 +79294,71 @@
         </is>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-40.910274495871036,176.21171251867068</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-40.91095207515089,176.20996655459933</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-40.91135414087851,176.209220221319</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-40.91167218209544,176.20840983616654</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>-40.91203075428933,176.20761217372348</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>-40.912478265998,176.20691278944088</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>-40.9127649972157,176.20603952226818</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>-40.91342929748233,176.20558729139412</t>
+        </is>
+      </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>-40.913936499583905,176.20495999808222</t>
+        </is>
+      </c>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>-40.914514294338474,176.2044818105227</t>
+        </is>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O644"/>
+  <dimension ref="A1:O645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29536,6 +29536,53 @@
         </is>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:28+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="n">
+        <v>295.85</v>
+      </c>
+      <c r="D645" t="n">
+        <v>282.16</v>
+      </c>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="n">
+        <v>302.64</v>
+      </c>
+      <c r="G645" t="n">
+        <v>308.49</v>
+      </c>
+      <c r="H645" t="n">
+        <v>310.3311111111111</v>
+      </c>
+      <c r="I645" t="n">
+        <v>315.84</v>
+      </c>
+      <c r="J645" t="n">
+        <v>318.5745454545454</v>
+      </c>
+      <c r="K645" t="n">
+        <v>335.54</v>
+      </c>
+      <c r="L645" t="n">
+        <v>343.65</v>
+      </c>
+      <c r="M645" t="n">
+        <v>334.8911111111111</v>
+      </c>
+      <c r="N645" t="n">
+        <v>327.8711111111111</v>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29547,7 +29594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B658"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36135,6 +36182,16 @@
       </c>
       <c r="B658" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -36311,7 +36368,7 @@
         <v>-2.345902539828269</v>
       </c>
       <c r="J2" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K2" t="n">
         <v>245</v>
@@ -36386,28 +36443,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1672910205861768</v>
+        <v>-0.1686587531325613</v>
       </c>
       <c r="J3" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K3" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005180614548891516</v>
+        <v>0.00528739351901053</v>
       </c>
       <c r="M3" t="n">
-        <v>10.74306849570661</v>
+        <v>10.72934455701987</v>
       </c>
       <c r="N3" t="n">
-        <v>301.6586175665171</v>
+        <v>301.0686355383156</v>
       </c>
       <c r="O3" t="n">
-        <v>17.36832224385871</v>
+        <v>17.35132950347943</v>
       </c>
       <c r="P3" t="n">
-        <v>303.6560618384324</v>
+        <v>303.6695426078529</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36464,28 +36521,28 @@
         <v>0.0466</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3689924242055961</v>
+        <v>-0.3725435148474045</v>
       </c>
       <c r="J4" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K4" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03814005674523524</v>
+        <v>0.03897703226398341</v>
       </c>
       <c r="M4" t="n">
-        <v>10.46024059011441</v>
+        <v>10.45891245355534</v>
       </c>
       <c r="N4" t="n">
-        <v>199.312814586592</v>
+        <v>199.0650490145627</v>
       </c>
       <c r="O4" t="n">
-        <v>14.11781904497263</v>
+        <v>14.10904139247464</v>
       </c>
       <c r="P4" t="n">
-        <v>300.7696909284493</v>
+        <v>300.8040972311575</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36545,7 +36602,7 @@
         <v>-0.4492740051973695</v>
       </c>
       <c r="J5" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K5" t="n">
         <v>518</v>
@@ -36620,28 +36677,28 @@
         <v>0.043</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4875233986676871</v>
+        <v>-0.4886782363073552</v>
       </c>
       <c r="J6" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K6" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07934771318442757</v>
+        <v>0.07998434252869735</v>
       </c>
       <c r="M6" t="n">
-        <v>9.872863836960745</v>
+        <v>9.860012976774362</v>
       </c>
       <c r="N6" t="n">
-        <v>153.9115771070427</v>
+        <v>153.6389191352395</v>
       </c>
       <c r="O6" t="n">
-        <v>12.40611047456223</v>
+        <v>12.39511674552683</v>
       </c>
       <c r="P6" t="n">
-        <v>318.3907286387166</v>
+        <v>318.402102625323</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36698,28 +36755,28 @@
         <v>0.0437</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4260387159873926</v>
+        <v>-0.4275907870004302</v>
       </c>
       <c r="J7" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K7" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08253988315215799</v>
+        <v>0.08337560924444731</v>
       </c>
       <c r="M7" t="n">
-        <v>8.405135900873892</v>
+        <v>8.397733958935365</v>
       </c>
       <c r="N7" t="n">
-        <v>112.7846302879961</v>
+        <v>112.6070015909327</v>
       </c>
       <c r="O7" t="n">
-        <v>10.62001084217884</v>
+        <v>10.61164462234449</v>
       </c>
       <c r="P7" t="n">
-        <v>323.7749003664647</v>
+        <v>323.7901903045292</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36776,28 +36833,28 @@
         <v>0.0505</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3021033592173362</v>
+        <v>-0.3068725612177994</v>
       </c>
       <c r="J8" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K8" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04683053031214346</v>
+        <v>0.0482990553630902</v>
       </c>
       <c r="M8" t="n">
-        <v>7.958471235153636</v>
+        <v>7.970221307375208</v>
       </c>
       <c r="N8" t="n">
-        <v>103.2190719342067</v>
+        <v>103.3353262654056</v>
       </c>
       <c r="O8" t="n">
-        <v>10.15967873184023</v>
+        <v>10.16539848040428</v>
       </c>
       <c r="P8" t="n">
-        <v>331.0578514073227</v>
+        <v>331.1047682710832</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36854,28 +36911,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2777771386509136</v>
+        <v>-0.2820487296991636</v>
       </c>
       <c r="J9" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K9" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03957589811400308</v>
+        <v>0.04081858939072913</v>
       </c>
       <c r="M9" t="n">
-        <v>7.762936683346807</v>
+        <v>7.771670261831158</v>
       </c>
       <c r="N9" t="n">
-        <v>104.3936133263666</v>
+        <v>104.4489079592314</v>
       </c>
       <c r="O9" t="n">
-        <v>10.21731928278483</v>
+        <v>10.2200248512042</v>
       </c>
       <c r="P9" t="n">
-        <v>334.6531583395205</v>
+        <v>334.6950186791141</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36932,28 +36989,28 @@
         <v>0.0591</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2619447300025051</v>
+        <v>-0.2661955441482577</v>
       </c>
       <c r="J10" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K10" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05327333281846813</v>
+        <v>0.05494050675768813</v>
       </c>
       <c r="M10" t="n">
-        <v>6.35341610482717</v>
+        <v>6.363290171243135</v>
       </c>
       <c r="N10" t="n">
-        <v>67.61664312487478</v>
+        <v>67.7379590979894</v>
       </c>
       <c r="O10" t="n">
-        <v>8.222933973033882</v>
+        <v>8.230307351368442</v>
       </c>
       <c r="P10" t="n">
-        <v>336.9069524810135</v>
+        <v>336.9489724527366</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37010,28 +37067,28 @@
         <v>0.0513</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1258759731709862</v>
+        <v>-0.1251137971587265</v>
       </c>
       <c r="J11" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K11" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008997560012885653</v>
+        <v>0.008926101537715114</v>
       </c>
       <c r="M11" t="n">
-        <v>7.573028816052398</v>
+        <v>7.562404491593632</v>
       </c>
       <c r="N11" t="n">
-        <v>96.56077337211413</v>
+        <v>96.38592848501827</v>
       </c>
       <c r="O11" t="n">
-        <v>9.826534148524297</v>
+        <v>9.817633548112207</v>
       </c>
       <c r="P11" t="n">
-        <v>336.7782109862968</v>
+        <v>336.7707126813634</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37088,28 +37145,28 @@
         <v>0.0424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01491838590926499</v>
+        <v>-0.01378458817040689</v>
       </c>
       <c r="J12" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K12" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001260164108208839</v>
+        <v>0.000108009242173468</v>
       </c>
       <c r="M12" t="n">
-        <v>7.602776443443677</v>
+        <v>7.594022651480116</v>
       </c>
       <c r="N12" t="n">
-        <v>97.585206368374</v>
+        <v>97.41930509791861</v>
       </c>
       <c r="O12" t="n">
-        <v>9.878522479013448</v>
+        <v>9.870121838048334</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9736289163925</v>
+        <v>340.9623771387075</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37166,28 +37223,28 @@
         <v>0.0462</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09462307417632328</v>
+        <v>-0.09448814064390154</v>
       </c>
       <c r="J13" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K13" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005762432173119225</v>
+        <v>0.005769400433462524</v>
       </c>
       <c r="M13" t="n">
-        <v>7.298352965398925</v>
+        <v>7.285287407267676</v>
       </c>
       <c r="N13" t="n">
-        <v>86.44313642561062</v>
+        <v>86.2805935305732</v>
       </c>
       <c r="O13" t="n">
-        <v>9.297480111600702</v>
+        <v>9.28873476478757</v>
       </c>
       <c r="P13" t="n">
-        <v>336.977046524798</v>
+        <v>336.975722134294</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37244,28 +37301,28 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4238131473286947</v>
+        <v>-0.4272281669539329</v>
       </c>
       <c r="J14" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K14" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1322586689336952</v>
+        <v>0.134348370254638</v>
       </c>
       <c r="M14" t="n">
-        <v>6.195451734385806</v>
+        <v>6.199563847197374</v>
       </c>
       <c r="N14" t="n">
-        <v>65.49297104009598</v>
+        <v>65.50968534499032</v>
       </c>
       <c r="O14" t="n">
-        <v>8.092772765875488</v>
+        <v>8.093805368613104</v>
       </c>
       <c r="P14" t="n">
-        <v>347.4645581677581</v>
+        <v>347.4984213768061</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37303,7 +37360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O644"/>
+  <dimension ref="A1:O645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79359,6 +79416,75 @@
         </is>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:28+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-40.910272514748556,176.21263242813907</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-40.91028546990995,176.21171578504473</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-40.910910209303566,176.20993845265298</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-40.91126649859711,176.20915825723355</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-40.91159385769505,176.2083488383023</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>-40.91200436370683,176.20758719075016</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>-40.91244043040699,176.206873251289</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>-40.91297155162785,176.20627423975841</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>-40.91347980591634,176.20566128752546</t>
+        </is>
+      </c>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>-40.91396655709564,176.20501232559445</t>
+        </is>
+      </c>
+      <c r="N645" t="inlineStr">
+        <is>
+          <t>-40.9144592137605,176.20438592001614</t>
+        </is>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O645"/>
+  <dimension ref="A1:O646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29583,6 +29583,55 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:32+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="n">
+        <v>292.22</v>
+      </c>
+      <c r="D646" t="n">
+        <v>273.71</v>
+      </c>
+      <c r="E646" t="n">
+        <v>284.42</v>
+      </c>
+      <c r="F646" t="n">
+        <v>286.3</v>
+      </c>
+      <c r="G646" t="n">
+        <v>289</v>
+      </c>
+      <c r="H646" t="n">
+        <v>301.51</v>
+      </c>
+      <c r="I646" t="n">
+        <v>305.33</v>
+      </c>
+      <c r="J646" t="n">
+        <v>307.9236363636364</v>
+      </c>
+      <c r="K646" t="n">
+        <v>319.35</v>
+      </c>
+      <c r="L646" t="n">
+        <v>334.86</v>
+      </c>
+      <c r="M646" t="n">
+        <v>329.59</v>
+      </c>
+      <c r="N646" t="n">
+        <v>329.86</v>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29594,7 +29643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36192,6 +36241,16 @@
       </c>
       <c r="B659" t="n">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -36368,7 +36427,7 @@
         <v>-2.345902539828269</v>
       </c>
       <c r="J2" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K2" t="n">
         <v>245</v>
@@ -36443,28 +36502,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1686587531325613</v>
+        <v>-0.1714344317922402</v>
       </c>
       <c r="J3" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K3" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00528739351901053</v>
+        <v>0.005483397984927474</v>
       </c>
       <c r="M3" t="n">
-        <v>10.72934455701987</v>
+        <v>10.7240182716068</v>
       </c>
       <c r="N3" t="n">
-        <v>301.0686355383156</v>
+        <v>300.5578394445675</v>
       </c>
       <c r="O3" t="n">
-        <v>17.35132950347943</v>
+        <v>17.33660403437096</v>
       </c>
       <c r="P3" t="n">
-        <v>303.6695426078529</v>
+        <v>303.6969293275266</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36521,28 +36580,28 @@
         <v>0.0466</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3725435148474045</v>
+        <v>-0.3793548833144404</v>
       </c>
       <c r="J4" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K4" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03897703226398341</v>
+        <v>0.0403991477079515</v>
       </c>
       <c r="M4" t="n">
-        <v>10.45891245355534</v>
+        <v>10.47702222126074</v>
       </c>
       <c r="N4" t="n">
-        <v>199.0650490145627</v>
+        <v>199.2808793719558</v>
       </c>
       <c r="O4" t="n">
-        <v>14.10904139247464</v>
+        <v>14.11668797459077</v>
       </c>
       <c r="P4" t="n">
-        <v>300.8040972311575</v>
+        <v>300.8701655318309</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36599,28 +36658,28 @@
         <v>0.0475</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4492740051973695</v>
+        <v>-0.4553652103457718</v>
       </c>
       <c r="J5" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K5" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05068869841173462</v>
+        <v>0.05209362440957666</v>
       </c>
       <c r="M5" t="n">
-        <v>10.47772112835622</v>
+        <v>10.48969489529986</v>
       </c>
       <c r="N5" t="n">
-        <v>210.2635493438127</v>
+        <v>210.3479084565085</v>
       </c>
       <c r="O5" t="n">
-        <v>14.50046721122505</v>
+        <v>14.50337576071545</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0576271544981</v>
+        <v>312.1176219767029</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36677,28 +36736,28 @@
         <v>0.043</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4886782363073552</v>
+        <v>-0.4958423391924651</v>
       </c>
       <c r="J6" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K6" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07998434252869735</v>
+        <v>0.08211096077626423</v>
       </c>
       <c r="M6" t="n">
-        <v>9.860012976774362</v>
+        <v>9.87750966883274</v>
       </c>
       <c r="N6" t="n">
-        <v>153.6389191352395</v>
+        <v>154.0571674608777</v>
       </c>
       <c r="O6" t="n">
-        <v>12.39511674552683</v>
+        <v>12.41197677490889</v>
       </c>
       <c r="P6" t="n">
-        <v>318.402102625323</v>
+        <v>318.472734836421</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36755,28 +36814,28 @@
         <v>0.0437</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4275907870004302</v>
+        <v>-0.4362196033640791</v>
       </c>
       <c r="J7" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K7" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08337560924444731</v>
+        <v>0.0860668418806888</v>
       </c>
       <c r="M7" t="n">
-        <v>8.397733958935365</v>
+        <v>8.428293748274958</v>
       </c>
       <c r="N7" t="n">
-        <v>112.6070015909327</v>
+        <v>113.4405038105668</v>
       </c>
       <c r="O7" t="n">
-        <v>10.61164462234449</v>
+        <v>10.65084521578296</v>
       </c>
       <c r="P7" t="n">
-        <v>323.7901903045292</v>
+        <v>323.8752838845687</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36833,28 +36892,28 @@
         <v>0.0505</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3068725612177994</v>
+        <v>-0.3148406505782262</v>
       </c>
       <c r="J8" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K8" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0482990553630902</v>
+        <v>0.05050388460081245</v>
       </c>
       <c r="M8" t="n">
-        <v>7.970221307375208</v>
+        <v>7.999873400672444</v>
       </c>
       <c r="N8" t="n">
-        <v>103.3353262654056</v>
+        <v>104.0108365873941</v>
       </c>
       <c r="O8" t="n">
-        <v>10.16539848040428</v>
+        <v>10.19857032075546</v>
       </c>
       <c r="P8" t="n">
-        <v>331.1047682710832</v>
+        <v>331.1832340251078</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36911,28 +36970,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2820487296991636</v>
+        <v>-0.2901255757629096</v>
       </c>
       <c r="J9" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K9" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04081858939072913</v>
+        <v>0.04290249907021393</v>
       </c>
       <c r="M9" t="n">
-        <v>7.771670261831158</v>
+        <v>7.801298654836096</v>
       </c>
       <c r="N9" t="n">
-        <v>104.4489079592314</v>
+        <v>105.1519618995077</v>
       </c>
       <c r="O9" t="n">
-        <v>10.2200248512042</v>
+        <v>10.25436306649553</v>
       </c>
       <c r="P9" t="n">
-        <v>334.6950186791141</v>
+        <v>334.7742501385445</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36989,28 +37048,28 @@
         <v>0.0591</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2661955441482577</v>
+        <v>-0.2743087594280931</v>
       </c>
       <c r="J10" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K10" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05494050675768813</v>
+        <v>0.05763533704854651</v>
       </c>
       <c r="M10" t="n">
-        <v>6.363290171243135</v>
+        <v>6.392859548806655</v>
       </c>
       <c r="N10" t="n">
-        <v>67.7379590979894</v>
+        <v>68.51930960834243</v>
       </c>
       <c r="O10" t="n">
-        <v>8.230307351368442</v>
+        <v>8.277639132527005</v>
       </c>
       <c r="P10" t="n">
-        <v>336.9489724527366</v>
+        <v>337.0292551269343</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37067,28 +37126,28 @@
         <v>0.0513</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1251137971587265</v>
+        <v>-0.1304331044629153</v>
       </c>
       <c r="J11" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K11" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008926101537715114</v>
+        <v>0.009696160529116704</v>
       </c>
       <c r="M11" t="n">
-        <v>7.562404491593632</v>
+        <v>7.575648451580491</v>
       </c>
       <c r="N11" t="n">
-        <v>96.38592848501827</v>
+        <v>96.58097406811396</v>
       </c>
       <c r="O11" t="n">
-        <v>9.817633548112207</v>
+        <v>9.827561959515389</v>
       </c>
       <c r="P11" t="n">
-        <v>336.7707126813634</v>
+        <v>336.8230969329779</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37145,28 +37204,28 @@
         <v>0.0424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01378458817040689</v>
+        <v>-0.01590291591380918</v>
       </c>
       <c r="J12" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K12" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000108009242173468</v>
+        <v>0.0001442413684222821</v>
       </c>
       <c r="M12" t="n">
-        <v>7.594022651480116</v>
+        <v>7.590899460734696</v>
       </c>
       <c r="N12" t="n">
-        <v>97.41930509791861</v>
+        <v>97.29808627357723</v>
       </c>
       <c r="O12" t="n">
-        <v>9.870121838048334</v>
+        <v>9.863979231201636</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9623771387075</v>
+        <v>340.9834209238508</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37223,28 +37282,28 @@
         <v>0.0462</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09448814064390154</v>
+        <v>-0.09630264690445182</v>
       </c>
       <c r="J13" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K13" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005769400433462524</v>
+        <v>0.006012824860830879</v>
       </c>
       <c r="M13" t="n">
-        <v>7.285287407267676</v>
+        <v>7.280942877970417</v>
       </c>
       <c r="N13" t="n">
-        <v>86.2805935305732</v>
+        <v>86.16393110776802</v>
       </c>
       <c r="O13" t="n">
-        <v>9.28873476478757</v>
+        <v>9.282452860519575</v>
       </c>
       <c r="P13" t="n">
-        <v>336.975722134294</v>
+        <v>336.9935501674464</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37301,28 +37360,28 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4272281669539329</v>
+        <v>-0.4298180287342721</v>
       </c>
       <c r="J14" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K14" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L14" t="n">
-        <v>0.134348370254638</v>
+        <v>0.1361105541727154</v>
       </c>
       <c r="M14" t="n">
-        <v>6.199563847197374</v>
+        <v>6.19962325568731</v>
       </c>
       <c r="N14" t="n">
-        <v>65.50968534499032</v>
+        <v>65.46355177495823</v>
       </c>
       <c r="O14" t="n">
-        <v>8.093805368613104</v>
+        <v>8.090954935911968</v>
       </c>
       <c r="P14" t="n">
-        <v>347.4984213768061</v>
+        <v>347.5241290587261</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37360,7 +37419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O645"/>
+  <dimension ref="A1:O646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79485,6 +79544,79 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:32+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-40.910240646206724,176.21262294229956</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-40.910211285403925,176.21169370437946</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-40.91045568481841,176.21075419848069</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-40.91077915791853,176.20985048626176</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-40.91111191496298,176.20904896533614</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-40.91152550354518,176.2082956052647</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-40.91192753125506,176.20751445650257</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-40.912365310587546,176.2067947513418</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>-40.91286118483245,176.20614882452</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>-40.91342688945079,176.20558376357184</t>
+        </is>
+      </c>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>-40.9139377552507,176.204962184087</t>
+        </is>
+      </c>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>-40.914470019799154,176.20440473236746</t>
+        </is>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O646"/>
+  <dimension ref="A1:O648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29299,9 +29299,7 @@
           <t>2025-05-15 22:00:11+00:00</t>
         </is>
       </c>
-      <c r="B640" t="n">
-        <v>233.0257142857143</v>
-      </c>
+      <c r="B640" t="inlineStr"/>
       <c r="C640" t="n">
         <v>293</v>
       </c>
@@ -29350,9 +29348,7 @@
           <t>2025-05-16 21:54:17+00:00</t>
         </is>
       </c>
-      <c r="B641" t="n">
-        <v>220.2314285714286</v>
-      </c>
+      <c r="B641" t="inlineStr"/>
       <c r="C641" t="n">
         <v>289.59</v>
       </c>
@@ -29629,6 +29625,108 @@
       <c r="O646" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>523.1585714285715</v>
+      </c>
+      <c r="C647" t="n">
+        <v>319.63</v>
+      </c>
+      <c r="D647" t="n">
+        <v>308.86</v>
+      </c>
+      <c r="E647" t="n">
+        <v>323.8544444444445</v>
+      </c>
+      <c r="F647" t="n">
+        <v>330.72</v>
+      </c>
+      <c r="G647" t="n">
+        <v>336.41</v>
+      </c>
+      <c r="H647" t="n">
+        <v>338.8644444444445</v>
+      </c>
+      <c r="I647" t="n">
+        <v>342.08</v>
+      </c>
+      <c r="J647" t="n">
+        <v>339.7554545454545</v>
+      </c>
+      <c r="K647" t="n">
+        <v>347.57</v>
+      </c>
+      <c r="L647" t="n">
+        <v>359.05</v>
+      </c>
+      <c r="M647" t="n">
+        <v>352.1744444444445</v>
+      </c>
+      <c r="N647" t="n">
+        <v>354.5344444444444</v>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:00:58+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>489.4057142857143</v>
+      </c>
+      <c r="C648" t="n">
+        <v>301.77</v>
+      </c>
+      <c r="D648" t="n">
+        <v>295.45</v>
+      </c>
+      <c r="E648" t="n">
+        <v>304.1566666666667</v>
+      </c>
+      <c r="F648" t="n">
+        <v>306.85</v>
+      </c>
+      <c r="G648" t="n">
+        <v>312.84</v>
+      </c>
+      <c r="H648" t="n">
+        <v>316.0866666666667</v>
+      </c>
+      <c r="I648" t="n">
+        <v>320.22</v>
+      </c>
+      <c r="J648" t="n">
+        <v>329.8745454545455</v>
+      </c>
+      <c r="K648" t="n">
+        <v>324.87</v>
+      </c>
+      <c r="L648" t="n">
+        <v>334.84</v>
+      </c>
+      <c r="M648" t="n">
+        <v>326.0666666666667</v>
+      </c>
+      <c r="N648" t="n">
+        <v>331.0266666666667</v>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -29643,7 +29741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36251,6 +36349,26 @@
       </c>
       <c r="B660" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-09-29 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -37419,7 +37537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O646"/>
+  <dimension ref="A1:O648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79120,11 +79238,7 @@
           <t>2025-05-15 22:00:11+00:00</t>
         </is>
       </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>-40.90958782480019,176.2133491237404</t>
-        </is>
-      </c>
+      <c r="B640" t="inlineStr"/>
       <c r="C640" t="inlineStr">
         <is>
           <t>-40.910247493992685,176.21262498057825</t>
@@ -79197,11 +79311,7 @@
           <t>2025-05-16 21:54:17+00:00</t>
         </is>
       </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>-40.9094755011838,176.21331568974384</t>
-        </is>
-      </c>
+      <c r="B641" t="inlineStr"/>
       <c r="C641" t="inlineStr">
         <is>
           <t>-40.91021755687671,176.21261606964526</t>
@@ -79614,6 +79724,160 @@
       <c r="O646" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-40.91213495547204,176.21410733179073</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-40.91048128439342,176.2126945697829</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-40.9105198753453,176.21178555507922</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-40.91079080996865,176.21090825774198</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-40.911135418589794,176.2100896221769</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-40.91148794399368,176.20931482201843</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-40.91181496022329,176.20852103008204</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-40.91219618874005,176.20776878490082</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-40.912589817104745,176.2070293605873</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>-40.91305355971522,176.2063674299827</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>-40.91357251494444,176.2057971090836</t>
+        </is>
+      </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>-40.914060460243185,176.20517580339234</t>
+        </is>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>-40.91460408080815,176.20463812163405</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-06 22:00:58+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-40.911838633236904,176.21401912169543</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-40.91032448768458,176.2126478981799</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-40.91040214588242,176.21175051320733</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-40.910623412673026,176.21083130386847</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-40.91094397467151,176.20996111724668</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-40.91130100031452,176.20918265031483</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-40.91163845706155,176.20838357159585</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>-40.912036383304745,176.20761750250432</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>-40.91252012813446,176.20695653540048</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>-40.91289881454156,176.20619158494927</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>-40.91342676904922,176.20558358718074</t>
+        </is>
+      </c>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>-40.91391861236397,176.20492885803236</t>
+        </is>
+      </c>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>-40.914476358535346,176.20441576754843</t>
+        </is>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -36542,28 +36542,28 @@
         <v>0.0383</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.345902539828269</v>
+        <v>-1.913995636951382</v>
       </c>
       <c r="J2" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K2" t="n">
         <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0413281873713468</v>
+        <v>0.02781601005248957</v>
       </c>
       <c r="M2" t="n">
-        <v>76.84506724199719</v>
+        <v>78.05432999905895</v>
       </c>
       <c r="N2" t="n">
-        <v>7064.631907648109</v>
+        <v>7094.043484123078</v>
       </c>
       <c r="O2" t="n">
-        <v>84.05136469830879</v>
+        <v>84.22614489648139</v>
       </c>
       <c r="P2" t="n">
-        <v>417.8860990337698</v>
+        <v>413.486314576343</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36620,28 +36620,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1714344317922402</v>
+        <v>-0.1623953641625965</v>
       </c>
       <c r="J3" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K3" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005483397984927474</v>
+        <v>0.004952291231663297</v>
       </c>
       <c r="M3" t="n">
-        <v>10.7240182716068</v>
+        <v>10.71989520909625</v>
       </c>
       <c r="N3" t="n">
-        <v>300.5578394445675</v>
+        <v>300.1905674257744</v>
       </c>
       <c r="O3" t="n">
-        <v>17.33660403437096</v>
+        <v>17.32600841006879</v>
       </c>
       <c r="P3" t="n">
-        <v>303.6969293275266</v>
+        <v>303.6069816719995</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36698,28 +36698,28 @@
         <v>0.0466</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3793548833144404</v>
+        <v>-0.3705765919658932</v>
       </c>
       <c r="J4" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K4" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0403991477079515</v>
+        <v>0.03881489205451627</v>
       </c>
       <c r="M4" t="n">
-        <v>10.47702222126074</v>
+        <v>10.47518323395411</v>
       </c>
       <c r="N4" t="n">
-        <v>199.2808793719558</v>
+        <v>199.1526979720635</v>
       </c>
       <c r="O4" t="n">
-        <v>14.11668797459077</v>
+        <v>14.11214717794792</v>
       </c>
       <c r="P4" t="n">
-        <v>300.8701655318309</v>
+        <v>300.7842437125052</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36776,28 +36776,28 @@
         <v>0.0475</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4553652103457718</v>
+        <v>-0.4448244480470061</v>
       </c>
       <c r="J5" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K5" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05209362440957666</v>
+        <v>0.04999073099654183</v>
       </c>
       <c r="M5" t="n">
-        <v>10.48969489529986</v>
+        <v>10.49960519324259</v>
       </c>
       <c r="N5" t="n">
-        <v>210.3479084565085</v>
+        <v>210.6324898046009</v>
       </c>
       <c r="O5" t="n">
-        <v>14.50337576071545</v>
+        <v>14.51318331051465</v>
       </c>
       <c r="P5" t="n">
-        <v>312.1176219767029</v>
+        <v>312.0129422744332</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36854,28 +36854,28 @@
         <v>0.043</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4958423391924651</v>
+        <v>-0.4860218783554237</v>
       </c>
       <c r="J6" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K6" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08211096077626423</v>
+        <v>0.07918758218123334</v>
       </c>
       <c r="M6" t="n">
-        <v>9.87750966883274</v>
+        <v>9.890571205925237</v>
       </c>
       <c r="N6" t="n">
-        <v>154.0571674608777</v>
+        <v>154.6664264321792</v>
       </c>
       <c r="O6" t="n">
-        <v>12.41197677490889</v>
+        <v>12.43649574567447</v>
       </c>
       <c r="P6" t="n">
-        <v>318.472734836421</v>
+        <v>318.3751058636784</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36932,28 +36932,28 @@
         <v>0.0437</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4362196033640791</v>
+        <v>-0.42734081963184</v>
       </c>
       <c r="J7" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K7" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0860668418806888</v>
+        <v>0.08279827472032952</v>
       </c>
       <c r="M7" t="n">
-        <v>8.428293748274958</v>
+        <v>8.439603390646297</v>
       </c>
       <c r="N7" t="n">
-        <v>113.4405038105668</v>
+        <v>114.0775674598044</v>
       </c>
       <c r="O7" t="n">
-        <v>10.65084521578296</v>
+        <v>10.68071006346509</v>
       </c>
       <c r="P7" t="n">
-        <v>323.8752838845687</v>
+        <v>323.7869944522795</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -37010,28 +37010,28 @@
         <v>0.0505</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3148406505782262</v>
+        <v>-0.3115062739475528</v>
       </c>
       <c r="J8" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K8" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05050388460081245</v>
+        <v>0.04963225141201233</v>
       </c>
       <c r="M8" t="n">
-        <v>7.999873400672444</v>
+        <v>8.010726968385663</v>
       </c>
       <c r="N8" t="n">
-        <v>104.0108365873941</v>
+        <v>104.180989710372</v>
       </c>
       <c r="O8" t="n">
-        <v>10.19857032075546</v>
+        <v>10.2069089204505</v>
       </c>
       <c r="P8" t="n">
-        <v>331.1832340251078</v>
+        <v>331.1501523209612</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37088,28 +37088,28 @@
         <v>0.0528</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2901255757629096</v>
+        <v>-0.2872226202565636</v>
       </c>
       <c r="J9" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K9" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04290249907021393</v>
+        <v>0.04222805532071927</v>
       </c>
       <c r="M9" t="n">
-        <v>7.801298654836096</v>
+        <v>7.811703965209792</v>
       </c>
       <c r="N9" t="n">
-        <v>105.1519618995077</v>
+        <v>105.2617353500737</v>
       </c>
       <c r="O9" t="n">
-        <v>10.25436306649553</v>
+        <v>10.25971419436593</v>
       </c>
       <c r="P9" t="n">
-        <v>334.7742501385445</v>
+        <v>334.7455622786845</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -37166,28 +37166,28 @@
         <v>0.0591</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2743087594280931</v>
+        <v>-0.2706629109500627</v>
       </c>
       <c r="J10" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K10" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05763533704854651</v>
+        <v>0.05649672046009735</v>
       </c>
       <c r="M10" t="n">
-        <v>6.392859548806655</v>
+        <v>6.387358056441248</v>
       </c>
       <c r="N10" t="n">
-        <v>68.51930960834243</v>
+        <v>68.44523839465812</v>
       </c>
       <c r="O10" t="n">
-        <v>8.277639132527005</v>
+        <v>8.27316374760334</v>
       </c>
       <c r="P10" t="n">
-        <v>337.0292551269343</v>
+        <v>336.9928818483222</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37244,28 +37244,28 @@
         <v>0.0513</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1304331044629153</v>
+        <v>-0.1283269613567328</v>
       </c>
       <c r="J11" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K11" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009696160529116704</v>
+        <v>0.009418177164052022</v>
       </c>
       <c r="M11" t="n">
-        <v>7.575648451580491</v>
+        <v>7.589537131061475</v>
       </c>
       <c r="N11" t="n">
-        <v>96.58097406811396</v>
+        <v>96.73126516384197</v>
       </c>
       <c r="O11" t="n">
-        <v>9.827561959515389</v>
+        <v>9.835205395101923</v>
       </c>
       <c r="P11" t="n">
-        <v>336.8230969329779</v>
+        <v>336.8022155661029</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37322,28 +37322,28 @@
         <v>0.0424</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01590291591380918</v>
+        <v>-0.01118419255882525</v>
       </c>
       <c r="J12" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K12" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001442413684222821</v>
+        <v>7.142456027953159e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>7.590899460734696</v>
+        <v>7.607022089279777</v>
       </c>
       <c r="N12" t="n">
-        <v>97.29808627357723</v>
+        <v>97.63233058953918</v>
       </c>
       <c r="O12" t="n">
-        <v>9.863979231201636</v>
+        <v>9.880907376832312</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9834209238508</v>
+        <v>340.9361778135386</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37400,28 +37400,28 @@
         <v>0.0462</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09630264690445182</v>
+        <v>-0.09288100404297341</v>
       </c>
       <c r="J13" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K13" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006012824860830879</v>
+        <v>0.005595303734959978</v>
       </c>
       <c r="M13" t="n">
-        <v>7.280942877970417</v>
+        <v>7.302464861258312</v>
       </c>
       <c r="N13" t="n">
-        <v>86.16393110776802</v>
+        <v>86.55909563038669</v>
       </c>
       <c r="O13" t="n">
-        <v>9.282452860519575</v>
+        <v>9.303714077205226</v>
       </c>
       <c r="P13" t="n">
-        <v>336.9935501674464</v>
+        <v>336.9596801431082</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37478,28 +37478,28 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4298180287342721</v>
+        <v>-0.4246861610539784</v>
       </c>
       <c r="J14" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K14" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1361105541727154</v>
+        <v>0.1330493444990778</v>
       </c>
       <c r="M14" t="n">
-        <v>6.19962325568731</v>
+        <v>6.223375985057402</v>
       </c>
       <c r="N14" t="n">
-        <v>65.46355177495823</v>
+        <v>65.92447419106836</v>
       </c>
       <c r="O14" t="n">
-        <v>8.090954935911968</v>
+        <v>8.119388781864577</v>
       </c>
       <c r="P14" t="n">
-        <v>347.5241290587261</v>
+        <v>347.4727826630173</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0326/nzd0326.xlsx
+++ b/data/nzd0326/nzd0326.xlsx
@@ -36533,13 +36533,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0309</v>
+        <v>0.0138</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0383</v>
+        <v>0.0163</v>
       </c>
       <c r="I2" t="n">
         <v>-1.914041539307409</v>
@@ -36611,13 +36611,13 @@
         <v>0.08344323815119012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.043</v>
+        <v>0.0372</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0585</v>
+        <v>0.0589</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1623953641625965</v>
@@ -36689,13 +36689,13 @@
         <v>0.1668864763023802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0363</v>
+        <v>0.0498</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0466</v>
+        <v>0.0626</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3705765919658932</v>
@@ -36770,10 +36770,10 @@
         <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.039</v>
+        <v>0.0399</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0475</v>
+        <v>0.0579</v>
       </c>
       <c r="I5" t="n">
         <v>-0.4448217036741391</v>
@@ -36845,13 +36845,13 @@
         <v>0.3333671827957817</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0385</v>
+        <v>0.0394</v>
       </c>
       <c r="H6" t="n">
-        <v>0.043</v>
+        <v>0.054</v>
       </c>
       <c r="I6" t="n">
         <v>-0.4860218783554237</v>
@@ -36923,13 +36923,13 @@
         <v>0.4168104209488601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0384</v>
+        <v>0.0434</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0437</v>
+        <v>0.0585</v>
       </c>
       <c r="I7" t="n">
         <v>-0.42734081963184</v>
@@ -37001,13 +37001,13 @@
         <v>0.5002536591019384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0432</v>
+        <v>0.0496</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0505</v>
+        <v>0.0587</v>
       </c>
       <c r="I8" t="n">
         <v>-0.311497577807351</v>
@@ -37079,13 +37079,13 @@
         <v>0.5833685404700322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0441</v>
+        <v>0.0597</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0528</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2872226202565636</v>
@@ -37157,13 +37157,13 @@
         <v>0.6668117786217402</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0524</v>
+        <v>0.0725</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0591</v>
+        <v>0.0852</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2706708769486587</v>
@@ -37235,13 +37235,13 @@
         <v>0.750255016772981</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0447</v>
+        <v>0.0557</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0513</v>
+        <v>0.0693</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1283269613567328</v>
@@ -37313,13 +37313,13 @@
         <v>0.8331135236934424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0391</v>
+        <v>0.054</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0424</v>
+        <v>0.0615</v>
       </c>
       <c r="I12" t="n">
         <v>-0.01118419255882525</v>
@@ -37391,13 +37391,13 @@
         <v>0.9165567618467212</v>
       </c>
       <c r="F13" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.044</v>
+        <v>0.0576</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0462</v>
+        <v>0.0688</v>
       </c>
       <c r="I13" t="n">
         <v>-0.0928773042391452</v>
@@ -37469,13 +37469,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.044</v>
+        <v>0.0557</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05</v>
+        <v>0.0616</v>
       </c>
       <c r="I14" t="n">
         <v>-0.4246836674460246</v>
